--- a/tovar2.xlsx
+++ b/tovar2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brandon\Desktop\tovar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E04DAC9-2614-4536-84E8-DA51419687EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A83761-B814-44FC-8016-5F3778525882}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Приход" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="93">
   <si>
     <t>сумма:</t>
   </si>
@@ -267,12 +267,57 @@
   <si>
     <t>Процент приращения</t>
   </si>
+  <si>
+    <t>Антон желев</t>
+  </si>
+  <si>
+    <t>Коля Алеев</t>
+  </si>
+  <si>
+    <t>Балашов</t>
+  </si>
+  <si>
+    <t>Хабаров Андрей</t>
+  </si>
+  <si>
+    <t>AH-NVR7104 IP видеорегистратор 4-х канальный</t>
+  </si>
+  <si>
+    <t>ANH-B12-4-Pro 2Мп уличная цилиндрическая  IP-камера с подсветкой до 30м</t>
+  </si>
+  <si>
+    <t>ANH-D12-4-Pro 2Мп уличная купольная  IP-камера с подсветкой до 30м</t>
+  </si>
+  <si>
+    <t>Видеокамера HDCVI Купольная DH-HAC-HDW1230MP-0280B</t>
+  </si>
+  <si>
+    <t>DH-HAC-HDW1239TLP-LED-0280B 2Mп HDCVI видеокамера с поддержкой полноцветного видео и функцией ночного видения Starlight</t>
+  </si>
+  <si>
+    <t>DH-HAC-HDW1400RP-0280B Dahua Видеокамера купольная</t>
+  </si>
+  <si>
+    <t>Видеокамера HDCVI уличная DH-HAC-HFW1400RP-0280B</t>
+  </si>
+  <si>
+    <t>DH-XVR4104C-X1 Видеорегистратор Dahua</t>
+  </si>
+  <si>
+    <t>DH-XVR5104C-X1 Видеорегистратор Dahua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS-I200 (2,8) </t>
+  </si>
+  <si>
+    <t>DS-I203 (2,8</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -298,6 +343,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="15">
@@ -386,7 +436,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="59">
+  <borders count="61">
     <border>
       <left/>
       <right/>
@@ -1120,11 +1170,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1480,13 +1559,38 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{654AD7C7-D5C8-44F0-82D3-DCFBFF8A4C51}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -2644,9 +2748,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ74"/>
+  <dimension ref="A1:AQ75"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2684,7 +2790,7 @@
       </c>
       <c r="J1" s="8">
         <f>SUM(G1:G74)</f>
-        <v>607358</v>
+        <v>722198</v>
       </c>
       <c r="K1" s="9"/>
       <c r="L1" s="10"/>
@@ -2805,7 +2911,7 @@
       </c>
       <c r="J3" s="21">
         <f>J2-J1</f>
-        <v>92642</v>
+        <v>-22198</v>
       </c>
       <c r="K3" s="9"/>
       <c r="L3" s="10"/>
@@ -4909,7 +5015,7 @@
         <v>10995</v>
       </c>
       <c r="E41" s="56">
-        <f t="shared" ref="E41:E62" si="2">C41*D41</f>
+        <f t="shared" ref="E41:E72" si="2">C41*D41</f>
         <v>10995</v>
       </c>
       <c r="F41" s="15"/>
@@ -6135,8 +6241,13 @@
       <c r="C63" s="16"/>
       <c r="D63" s="16"/>
       <c r="E63" s="16"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
+      <c r="F63" s="167" t="s">
+        <v>0</v>
+      </c>
+      <c r="G63" s="168">
+        <f>SUM(E64:E72)</f>
+        <v>64340</v>
+      </c>
       <c r="H63" s="10"/>
       <c r="I63" s="10"/>
       <c r="J63" s="10"/>
@@ -6178,30 +6289,38 @@
       <c r="A64" s="58">
         <v>60</v>
       </c>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="10"/>
-      <c r="J64" s="10"/>
-      <c r="K64" s="10"/>
-      <c r="L64" s="10"/>
-      <c r="M64" s="10"/>
-      <c r="N64" s="10"/>
-      <c r="O64" s="10"/>
-      <c r="P64" s="10"/>
-      <c r="Q64" s="10"/>
-      <c r="R64" s="10"/>
-      <c r="S64" s="10"/>
-      <c r="T64" s="10"/>
-      <c r="U64" s="10"/>
-      <c r="V64" s="10"/>
-      <c r="W64" s="10"/>
-      <c r="X64" s="10"/>
-      <c r="Y64" s="10"/>
+      <c r="B64" s="164" t="s">
+        <v>82</v>
+      </c>
+      <c r="C64" s="165">
+        <v>1</v>
+      </c>
+      <c r="D64" s="166">
+        <v>2100</v>
+      </c>
+      <c r="E64" s="56">
+        <f t="shared" si="2"/>
+        <v>2100</v>
+      </c>
+      <c r="F64" s="166"/>
+      <c r="G64" s="166"/>
+      <c r="H64" s="164"/>
+      <c r="I64" s="164"/>
+      <c r="J64" s="164"/>
+      <c r="K64" s="164"/>
+      <c r="L64" s="164"/>
+      <c r="M64" s="164"/>
+      <c r="N64" s="164"/>
+      <c r="O64" s="164"/>
+      <c r="P64" s="164"/>
+      <c r="Q64" s="164"/>
+      <c r="R64" s="164"/>
+      <c r="S64" s="164"/>
+      <c r="T64" s="164"/>
+      <c r="U64" s="164"/>
+      <c r="V64" s="164"/>
+      <c r="X64" s="165"/>
+      <c r="Y64" s="165"/>
       <c r="Z64" s="10"/>
       <c r="AA64" s="10"/>
       <c r="AB64" s="10"/>
@@ -6225,30 +6344,38 @@
       <c r="A65" s="58">
         <v>61</v>
       </c>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="10"/>
-      <c r="K65" s="10"/>
-      <c r="L65" s="10"/>
-      <c r="M65" s="10"/>
-      <c r="N65" s="10"/>
-      <c r="O65" s="10"/>
-      <c r="P65" s="10"/>
-      <c r="Q65" s="10"/>
-      <c r="R65" s="10"/>
-      <c r="S65" s="10"/>
-      <c r="T65" s="10"/>
-      <c r="U65" s="10"/>
-      <c r="V65" s="10"/>
-      <c r="W65" s="10"/>
-      <c r="X65" s="10"/>
-      <c r="Y65" s="10"/>
+      <c r="B65" s="164" t="s">
+        <v>83</v>
+      </c>
+      <c r="C65" s="165">
+        <v>2</v>
+      </c>
+      <c r="D65" s="166">
+        <v>2900</v>
+      </c>
+      <c r="E65" s="56">
+        <f t="shared" si="2"/>
+        <v>5800</v>
+      </c>
+      <c r="F65" s="166"/>
+      <c r="G65" s="166"/>
+      <c r="H65" s="164"/>
+      <c r="I65" s="164"/>
+      <c r="J65" s="164"/>
+      <c r="K65" s="164"/>
+      <c r="L65" s="164"/>
+      <c r="M65" s="164"/>
+      <c r="N65" s="164"/>
+      <c r="O65" s="164"/>
+      <c r="P65" s="164"/>
+      <c r="Q65" s="164"/>
+      <c r="R65" s="164"/>
+      <c r="S65" s="164"/>
+      <c r="T65" s="164"/>
+      <c r="U65" s="164"/>
+      <c r="V65" s="164"/>
+      <c r="X65" s="165"/>
+      <c r="Y65" s="165"/>
       <c r="Z65" s="10"/>
       <c r="AA65" s="10"/>
       <c r="AB65" s="10"/>
@@ -6272,30 +6399,38 @@
       <c r="A66" s="58">
         <v>62</v>
       </c>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="10"/>
-      <c r="K66" s="10"/>
-      <c r="L66" s="10"/>
-      <c r="M66" s="10"/>
-      <c r="N66" s="10"/>
-      <c r="O66" s="10"/>
-      <c r="P66" s="10"/>
-      <c r="Q66" s="10"/>
-      <c r="R66" s="10"/>
-      <c r="S66" s="10"/>
-      <c r="T66" s="10"/>
-      <c r="U66" s="10"/>
-      <c r="V66" s="10"/>
-      <c r="W66" s="10"/>
-      <c r="X66" s="10"/>
-      <c r="Y66" s="10"/>
+      <c r="B66" s="164" t="s">
+        <v>84</v>
+      </c>
+      <c r="C66" s="165">
+        <v>2</v>
+      </c>
+      <c r="D66" s="166">
+        <v>3200</v>
+      </c>
+      <c r="E66" s="56">
+        <f t="shared" si="2"/>
+        <v>6400</v>
+      </c>
+      <c r="F66" s="166"/>
+      <c r="G66" s="166"/>
+      <c r="H66" s="164"/>
+      <c r="I66" s="164"/>
+      <c r="J66" s="164"/>
+      <c r="K66" s="164"/>
+      <c r="L66" s="164"/>
+      <c r="M66" s="164"/>
+      <c r="N66" s="164"/>
+      <c r="O66" s="164"/>
+      <c r="P66" s="164"/>
+      <c r="Q66" s="164"/>
+      <c r="R66" s="164"/>
+      <c r="S66" s="164"/>
+      <c r="T66" s="164"/>
+      <c r="U66" s="164"/>
+      <c r="V66" s="164"/>
+      <c r="X66" s="165"/>
+      <c r="Y66" s="165"/>
       <c r="Z66" s="10"/>
       <c r="AA66" s="10"/>
       <c r="AB66" s="10"/>
@@ -6319,30 +6454,38 @@
       <c r="A67" s="58">
         <v>63</v>
       </c>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="10"/>
-      <c r="J67" s="10"/>
-      <c r="K67" s="10"/>
-      <c r="L67" s="10"/>
-      <c r="M67" s="10"/>
-      <c r="N67" s="10"/>
-      <c r="O67" s="10"/>
-      <c r="P67" s="10"/>
-      <c r="Q67" s="10"/>
-      <c r="R67" s="10"/>
-      <c r="S67" s="10"/>
-      <c r="T67" s="10"/>
-      <c r="U67" s="10"/>
-      <c r="V67" s="10"/>
-      <c r="W67" s="10"/>
-      <c r="X67" s="10"/>
-      <c r="Y67" s="10"/>
+      <c r="B67" s="164" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67" s="165">
+        <v>5</v>
+      </c>
+      <c r="D67" s="166">
+        <v>1300</v>
+      </c>
+      <c r="E67" s="56">
+        <f t="shared" si="2"/>
+        <v>6500</v>
+      </c>
+      <c r="F67" s="166"/>
+      <c r="G67" s="166"/>
+      <c r="H67" s="164"/>
+      <c r="I67" s="164"/>
+      <c r="J67" s="164"/>
+      <c r="K67" s="164"/>
+      <c r="L67" s="164"/>
+      <c r="M67" s="164"/>
+      <c r="N67" s="164"/>
+      <c r="O67" s="164"/>
+      <c r="P67" s="164"/>
+      <c r="Q67" s="164"/>
+      <c r="R67" s="164"/>
+      <c r="S67" s="164"/>
+      <c r="T67" s="164"/>
+      <c r="U67" s="164"/>
+      <c r="V67" s="164"/>
+      <c r="X67" s="165"/>
+      <c r="Y67" s="165"/>
       <c r="Z67" s="10"/>
       <c r="AA67" s="10"/>
       <c r="AB67" s="10"/>
@@ -6366,30 +6509,38 @@
       <c r="A68" s="58">
         <v>64</v>
       </c>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="10"/>
-      <c r="K68" s="10"/>
-      <c r="L68" s="10"/>
-      <c r="M68" s="10"/>
-      <c r="N68" s="10"/>
-      <c r="O68" s="10"/>
-      <c r="P68" s="10"/>
-      <c r="Q68" s="10"/>
-      <c r="R68" s="10"/>
-      <c r="S68" s="10"/>
-      <c r="T68" s="10"/>
-      <c r="U68" s="10"/>
-      <c r="V68" s="10"/>
-      <c r="W68" s="10"/>
-      <c r="X68" s="10"/>
-      <c r="Y68" s="10"/>
+      <c r="B68" s="164" t="s">
+        <v>86</v>
+      </c>
+      <c r="C68" s="165">
+        <v>10</v>
+      </c>
+      <c r="D68" s="166">
+        <v>1645</v>
+      </c>
+      <c r="E68" s="56">
+        <f t="shared" si="2"/>
+        <v>16450</v>
+      </c>
+      <c r="F68" s="166"/>
+      <c r="G68" s="166"/>
+      <c r="H68" s="164"/>
+      <c r="I68" s="164"/>
+      <c r="J68" s="164"/>
+      <c r="K68" s="164"/>
+      <c r="L68" s="164"/>
+      <c r="M68" s="164"/>
+      <c r="N68" s="164"/>
+      <c r="O68" s="164"/>
+      <c r="P68" s="164"/>
+      <c r="Q68" s="164"/>
+      <c r="R68" s="164"/>
+      <c r="S68" s="164"/>
+      <c r="T68" s="164"/>
+      <c r="U68" s="164"/>
+      <c r="V68" s="164"/>
+      <c r="X68" s="165"/>
+      <c r="Y68" s="165"/>
       <c r="Z68" s="10"/>
       <c r="AA68" s="10"/>
       <c r="AB68" s="10"/>
@@ -6413,30 +6564,38 @@
       <c r="A69" s="58">
         <v>65</v>
       </c>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="10"/>
-      <c r="I69" s="10"/>
-      <c r="J69" s="10"/>
-      <c r="K69" s="10"/>
-      <c r="L69" s="10"/>
-      <c r="M69" s="10"/>
-      <c r="N69" s="10"/>
-      <c r="O69" s="10"/>
-      <c r="P69" s="10"/>
-      <c r="Q69" s="10"/>
-      <c r="R69" s="10"/>
-      <c r="S69" s="10"/>
-      <c r="T69" s="10"/>
-      <c r="U69" s="10"/>
-      <c r="V69" s="10"/>
-      <c r="W69" s="10"/>
-      <c r="X69" s="10"/>
-      <c r="Y69" s="10"/>
+      <c r="B69" s="164" t="s">
+        <v>87</v>
+      </c>
+      <c r="C69" s="165">
+        <v>7</v>
+      </c>
+      <c r="D69" s="166">
+        <v>1100</v>
+      </c>
+      <c r="E69" s="56">
+        <f t="shared" si="2"/>
+        <v>7700</v>
+      </c>
+      <c r="F69" s="166"/>
+      <c r="G69" s="166"/>
+      <c r="H69" s="164"/>
+      <c r="I69" s="164"/>
+      <c r="J69" s="164"/>
+      <c r="K69" s="164"/>
+      <c r="L69" s="164"/>
+      <c r="M69" s="164"/>
+      <c r="N69" s="164"/>
+      <c r="O69" s="164"/>
+      <c r="P69" s="164"/>
+      <c r="Q69" s="164"/>
+      <c r="R69" s="164"/>
+      <c r="S69" s="164"/>
+      <c r="T69" s="164"/>
+      <c r="U69" s="164"/>
+      <c r="V69" s="164"/>
+      <c r="X69" s="165"/>
+      <c r="Y69" s="165"/>
       <c r="Z69" s="10"/>
       <c r="AA69" s="10"/>
       <c r="AB69" s="10"/>
@@ -6460,30 +6619,38 @@
       <c r="A70" s="58">
         <v>66</v>
       </c>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="10"/>
-      <c r="K70" s="10"/>
-      <c r="L70" s="10"/>
-      <c r="M70" s="10"/>
-      <c r="N70" s="10"/>
-      <c r="O70" s="10"/>
-      <c r="P70" s="10"/>
-      <c r="Q70" s="10"/>
-      <c r="R70" s="10"/>
-      <c r="S70" s="10"/>
-      <c r="T70" s="10"/>
-      <c r="U70" s="10"/>
-      <c r="V70" s="10"/>
-      <c r="W70" s="10"/>
-      <c r="X70" s="10"/>
-      <c r="Y70" s="10"/>
+      <c r="B70" s="164" t="s">
+        <v>88</v>
+      </c>
+      <c r="C70" s="165">
+        <v>10</v>
+      </c>
+      <c r="D70" s="166">
+        <v>1350</v>
+      </c>
+      <c r="E70" s="56">
+        <f t="shared" si="2"/>
+        <v>13500</v>
+      </c>
+      <c r="F70" s="166"/>
+      <c r="G70" s="166"/>
+      <c r="H70" s="164"/>
+      <c r="I70" s="164"/>
+      <c r="J70" s="164"/>
+      <c r="K70" s="164"/>
+      <c r="L70" s="164"/>
+      <c r="M70" s="164"/>
+      <c r="N70" s="164"/>
+      <c r="O70" s="164"/>
+      <c r="P70" s="164"/>
+      <c r="Q70" s="164"/>
+      <c r="R70" s="164"/>
+      <c r="S70" s="164"/>
+      <c r="T70" s="164"/>
+      <c r="U70" s="164"/>
+      <c r="V70" s="164"/>
+      <c r="X70" s="165"/>
+      <c r="Y70" s="165"/>
       <c r="Z70" s="10"/>
       <c r="AA70" s="10"/>
       <c r="AB70" s="10"/>
@@ -6507,30 +6674,38 @@
       <c r="A71" s="58">
         <v>67</v>
       </c>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="10"/>
-      <c r="K71" s="10"/>
-      <c r="L71" s="10"/>
-      <c r="M71" s="10"/>
-      <c r="N71" s="10"/>
-      <c r="O71" s="10"/>
-      <c r="P71" s="10"/>
-      <c r="Q71" s="10"/>
-      <c r="R71" s="10"/>
-      <c r="S71" s="10"/>
-      <c r="T71" s="10"/>
-      <c r="U71" s="10"/>
-      <c r="V71" s="10"/>
-      <c r="W71" s="10"/>
-      <c r="X71" s="10"/>
-      <c r="Y71" s="10"/>
+      <c r="B71" s="164" t="s">
+        <v>89</v>
+      </c>
+      <c r="C71" s="165">
+        <v>1</v>
+      </c>
+      <c r="D71" s="166">
+        <v>2745</v>
+      </c>
+      <c r="E71" s="56">
+        <f t="shared" si="2"/>
+        <v>2745</v>
+      </c>
+      <c r="F71" s="166"/>
+      <c r="G71" s="166"/>
+      <c r="H71" s="164"/>
+      <c r="I71" s="164"/>
+      <c r="J71" s="164"/>
+      <c r="K71" s="164"/>
+      <c r="L71" s="164"/>
+      <c r="M71" s="164"/>
+      <c r="N71" s="164"/>
+      <c r="O71" s="164"/>
+      <c r="P71" s="164"/>
+      <c r="Q71" s="164"/>
+      <c r="R71" s="164"/>
+      <c r="S71" s="164"/>
+      <c r="T71" s="164"/>
+      <c r="U71" s="164"/>
+      <c r="V71" s="164"/>
+      <c r="X71" s="165"/>
+      <c r="Y71" s="165"/>
       <c r="Z71" s="10"/>
       <c r="AA71" s="10"/>
       <c r="AB71" s="10"/>
@@ -6554,30 +6729,38 @@
       <c r="A72" s="58">
         <v>68</v>
       </c>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
-      <c r="K72" s="10"/>
-      <c r="L72" s="10"/>
-      <c r="M72" s="10"/>
-      <c r="N72" s="10"/>
-      <c r="O72" s="10"/>
-      <c r="P72" s="10"/>
-      <c r="Q72" s="10"/>
-      <c r="R72" s="10"/>
-      <c r="S72" s="10"/>
-      <c r="T72" s="10"/>
-      <c r="U72" s="10"/>
-      <c r="V72" s="10"/>
-      <c r="W72" s="10"/>
-      <c r="X72" s="10"/>
-      <c r="Y72" s="10"/>
+      <c r="B72" s="164" t="s">
+        <v>90</v>
+      </c>
+      <c r="C72" s="165">
+        <v>1</v>
+      </c>
+      <c r="D72" s="166">
+        <v>3145</v>
+      </c>
+      <c r="E72" s="56">
+        <f t="shared" si="2"/>
+        <v>3145</v>
+      </c>
+      <c r="F72" s="166"/>
+      <c r="G72" s="166"/>
+      <c r="H72" s="164"/>
+      <c r="I72" s="164"/>
+      <c r="J72" s="164"/>
+      <c r="K72" s="164"/>
+      <c r="L72" s="164"/>
+      <c r="M72" s="164"/>
+      <c r="N72" s="164"/>
+      <c r="O72" s="164"/>
+      <c r="P72" s="164"/>
+      <c r="Q72" s="164"/>
+      <c r="R72" s="164"/>
+      <c r="S72" s="164"/>
+      <c r="T72" s="164"/>
+      <c r="U72" s="164"/>
+      <c r="V72" s="164"/>
+      <c r="X72" s="165"/>
+      <c r="Y72" s="165"/>
       <c r="Z72" s="10"/>
       <c r="AA72" s="10"/>
       <c r="AB72" s="10"/>
@@ -6605,8 +6788,13 @@
       <c r="C73" s="10"/>
       <c r="D73" s="10"/>
       <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
+      <c r="F73" s="167" t="s">
+        <v>0</v>
+      </c>
+      <c r="G73" s="10">
+        <f>SUM(E74:E75)</f>
+        <v>50500</v>
+      </c>
       <c r="H73" s="10"/>
       <c r="I73" s="10"/>
       <c r="J73" s="10"/>
@@ -6648,10 +6836,19 @@
       <c r="A74" s="58">
         <v>70</v>
       </c>
-      <c r="B74" s="10"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
+      <c r="B74" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C74" s="10">
+        <v>10</v>
+      </c>
+      <c r="D74" s="10">
+        <v>2525</v>
+      </c>
+      <c r="E74" s="10">
+        <f>C74*D74</f>
+        <v>25250</v>
+      </c>
       <c r="F74" s="10"/>
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
@@ -6691,9 +6888,24 @@
       <c r="AP74" s="10"/>
       <c r="AQ74" s="10"/>
     </row>
+    <row r="75" spans="1:43" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="148" t="s">
+        <v>92</v>
+      </c>
+      <c r="C75" s="169">
+        <v>10</v>
+      </c>
+      <c r="D75" s="170">
+        <v>2525</v>
+      </c>
+      <c r="E75" s="10">
+        <f>C75*D75</f>
+        <v>25250</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -6707,7 +6919,7 @@
   </sheetPr>
   <dimension ref="A1:AY78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="P28" sqref="P28"/>
     </sheetView>
@@ -6732,59 +6944,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="162" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
-      <c r="J1" s="161"/>
-      <c r="K1" s="161"/>
-      <c r="L1" s="161"/>
-      <c r="M1" s="161"/>
-      <c r="N1" s="161"/>
-      <c r="O1" s="161"/>
-      <c r="P1" s="161"/>
-      <c r="Q1" s="161"/>
-      <c r="R1" s="161"/>
-      <c r="S1" s="161"/>
-      <c r="T1" s="161"/>
-      <c r="U1" s="161"/>
-      <c r="V1" s="161"/>
-      <c r="W1" s="161"/>
-      <c r="X1" s="161"/>
-      <c r="Y1" s="161"/>
-      <c r="Z1" s="161"/>
-      <c r="AA1" s="161"/>
-      <c r="AB1" s="161"/>
-      <c r="AC1" s="161"/>
-      <c r="AD1" s="161"/>
-      <c r="AE1" s="161"/>
-      <c r="AF1" s="161"/>
-      <c r="AG1" s="161"/>
-      <c r="AH1" s="161"/>
-      <c r="AI1" s="161"/>
-      <c r="AJ1" s="161"/>
-      <c r="AK1" s="161"/>
-      <c r="AL1" s="161"/>
-      <c r="AM1" s="161"/>
-      <c r="AN1" s="161"/>
-      <c r="AO1" s="161"/>
-      <c r="AP1" s="161"/>
-      <c r="AQ1" s="161"/>
-      <c r="AR1" s="161"/>
-      <c r="AS1" s="161"/>
-      <c r="AT1" s="161"/>
-      <c r="AU1" s="161"/>
-      <c r="AV1" s="161"/>
-      <c r="AW1" s="161"/>
-      <c r="AX1" s="161"/>
-      <c r="AY1" s="161"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="162"/>
+      <c r="O1" s="162"/>
+      <c r="P1" s="162"/>
+      <c r="Q1" s="162"/>
+      <c r="R1" s="162"/>
+      <c r="S1" s="162"/>
+      <c r="T1" s="162"/>
+      <c r="U1" s="162"/>
+      <c r="V1" s="162"/>
+      <c r="W1" s="162"/>
+      <c r="X1" s="162"/>
+      <c r="Y1" s="162"/>
+      <c r="Z1" s="162"/>
+      <c r="AA1" s="162"/>
+      <c r="AB1" s="162"/>
+      <c r="AC1" s="162"/>
+      <c r="AD1" s="162"/>
+      <c r="AE1" s="162"/>
+      <c r="AF1" s="162"/>
+      <c r="AG1" s="162"/>
+      <c r="AH1" s="162"/>
+      <c r="AI1" s="162"/>
+      <c r="AJ1" s="162"/>
+      <c r="AK1" s="162"/>
+      <c r="AL1" s="162"/>
+      <c r="AM1" s="162"/>
+      <c r="AN1" s="162"/>
+      <c r="AO1" s="162"/>
+      <c r="AP1" s="162"/>
+      <c r="AQ1" s="162"/>
+      <c r="AR1" s="162"/>
+      <c r="AS1" s="162"/>
+      <c r="AT1" s="162"/>
+      <c r="AU1" s="162"/>
+      <c r="AV1" s="162"/>
+      <c r="AW1" s="162"/>
+      <c r="AX1" s="162"/>
+      <c r="AY1" s="162"/>
     </row>
     <row r="2" spans="1:51" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="60"/>
@@ -7001,7 +7213,7 @@
       </c>
       <c r="T5" s="88">
         <f>Приход!J1</f>
-        <v>607358</v>
+        <v>722198</v>
       </c>
       <c r="U5" s="89"/>
       <c r="V5" s="89"/>
@@ -7838,7 +8050,7 @@
       <c r="S15" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="T15" s="162">
+      <c r="T15" s="161">
         <v>0.65</v>
       </c>
       <c r="U15" s="68"/>
@@ -9653,7 +9865,7 @@
         <v>6048.24</v>
       </c>
       <c r="F38" s="13">
-        <f t="shared" ref="F38:F69" si="6">E38*C38</f>
+        <f t="shared" ref="F38:F66" si="6">E38*C38</f>
         <v>6048.24</v>
       </c>
       <c r="G38" s="14">
@@ -12622,136 +12834,231 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:AQ12"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="148" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="148" customWidth="1"/>
     <col min="2" max="2" width="47.140625" style="148" customWidth="1"/>
     <col min="3" max="9" width="8.85546875" style="148" customWidth="1"/>
     <col min="10" max="16384" width="8.85546875" style="148"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="149">
+    <row r="1" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="148" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="149">
         <v>16</v>
       </c>
-      <c r="B1" s="150" t="s">
+      <c r="B2" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="151">
+      <c r="C2" s="151">
         <v>1</v>
       </c>
-      <c r="D1" s="152">
+      <c r="D2" s="152">
         <v>4245</v>
       </c>
-      <c r="E1" s="152">
-        <f>C1*D1</f>
+      <c r="E2" s="152">
+        <f>C2*D2</f>
         <v>4245</v>
-      </c>
-      <c r="F1" s="153"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="155">
-        <f>SUM(E1:E10)/5*6</f>
-        <v>15006</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="156">
-        <v>8</v>
-      </c>
-      <c r="B2" s="157" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="158">
-        <v>1</v>
-      </c>
-      <c r="D2" s="159">
-        <v>1295</v>
-      </c>
-      <c r="E2" s="159">
-        <f>C2*D2</f>
-        <v>1295</v>
       </c>
       <c r="F2" s="153"/>
       <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="155">
+        <f>SUM(E2:E12)/5*6</f>
+        <v>37386</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="156">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3" s="157" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C3" s="158">
-        <v>7</v>
-      </c>
-      <c r="D3" s="158">
-        <v>995</v>
-      </c>
-      <c r="E3" s="158">
+        <v>1</v>
+      </c>
+      <c r="D3" s="159">
+        <v>1295</v>
+      </c>
+      <c r="E3" s="159">
         <f>C3*D3</f>
-        <v>6965</v>
+        <v>1295</v>
       </c>
       <c r="F3" s="153"/>
       <c r="G3" s="154"/>
       <c r="H3" s="154"/>
     </row>
-    <row r="4" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="160"/>
-      <c r="B4" s="160"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="154"/>
+    <row r="4" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="156">
+        <v>3</v>
+      </c>
+      <c r="B4" s="157" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="158">
+        <v>7</v>
+      </c>
+      <c r="D4" s="158">
+        <v>995</v>
+      </c>
+      <c r="E4" s="158">
+        <f>C4*D4</f>
+        <v>6965</v>
+      </c>
+      <c r="F4" s="153"/>
       <c r="G4" s="154"/>
       <c r="H4" s="154"/>
     </row>
-    <row r="5" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="154"/>
-      <c r="B5" s="154"/>
-      <c r="C5" s="154"/>
-      <c r="D5" s="154"/>
-      <c r="E5" s="154"/>
+    <row r="5" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="160" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="160"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="160"/>
       <c r="F5" s="154"/>
       <c r="G5" s="154"/>
       <c r="H5" s="154"/>
     </row>
-    <row r="6" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="154"/>
-      <c r="B6" s="154"/>
-      <c r="C6" s="154"/>
-      <c r="D6" s="154"/>
-      <c r="E6" s="154"/>
-      <c r="F6" s="154"/>
-      <c r="G6" s="154"/>
-      <c r="H6" s="154"/>
-    </row>
-    <row r="7" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="154"/>
-      <c r="B7" s="154"/>
-      <c r="C7" s="154"/>
-      <c r="D7" s="154"/>
-      <c r="E7" s="154"/>
-      <c r="F7" s="154"/>
-      <c r="G7" s="154"/>
-      <c r="H7" s="154"/>
-    </row>
-    <row r="8" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="154"/>
-      <c r="B8" s="154"/>
-      <c r="C8" s="154"/>
-      <c r="D8" s="154"/>
-      <c r="E8" s="154"/>
+    <row r="6" spans="1:43" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="52">
+        <v>45</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="54">
+        <v>1</v>
+      </c>
+      <c r="D6" s="55">
+        <v>2525</v>
+      </c>
+      <c r="E6" s="56">
+        <f t="shared" ref="E6:E8" si="0">C6*D6</f>
+        <v>2525</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="10"/>
+      <c r="AM6" s="10"/>
+      <c r="AN6" s="10"/>
+      <c r="AO6" s="10"/>
+      <c r="AP6" s="10"/>
+      <c r="AQ6" s="10"/>
+    </row>
+    <row r="7" spans="1:43" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="53"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="163"/>
+      <c r="J7" s="163"/>
+      <c r="K7" s="163"/>
+      <c r="L7" s="163"/>
+      <c r="M7" s="163"/>
+      <c r="N7" s="163"/>
+      <c r="O7" s="163"/>
+      <c r="P7" s="163"/>
+      <c r="Q7" s="163"/>
+      <c r="R7" s="163"/>
+      <c r="S7" s="163"/>
+      <c r="T7" s="163"/>
+      <c r="U7" s="163"/>
+      <c r="V7" s="163"/>
+      <c r="W7" s="163"/>
+      <c r="X7" s="163"/>
+      <c r="Y7" s="163"/>
+      <c r="Z7" s="163"/>
+      <c r="AA7" s="163"/>
+      <c r="AB7" s="163"/>
+      <c r="AC7" s="163"/>
+      <c r="AD7" s="163"/>
+      <c r="AE7" s="163"/>
+      <c r="AF7" s="163"/>
+      <c r="AG7" s="163"/>
+      <c r="AH7" s="163"/>
+      <c r="AI7" s="163"/>
+      <c r="AJ7" s="163"/>
+      <c r="AK7" s="163"/>
+      <c r="AL7" s="163"/>
+      <c r="AM7" s="163"/>
+      <c r="AN7" s="163"/>
+      <c r="AO7" s="163"/>
+      <c r="AP7" s="163"/>
+      <c r="AQ7" s="163"/>
+    </row>
+    <row r="8" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="28">
+        <v>21</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="30">
+        <v>1</v>
+      </c>
+      <c r="D8" s="31">
+        <v>3500</v>
+      </c>
+      <c r="E8" s="31">
+        <f t="shared" si="0"/>
+        <v>3500</v>
+      </c>
       <c r="F8" s="154"/>
       <c r="G8" s="154"/>
       <c r="H8" s="154"/>
     </row>
-    <row r="9" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="154"/>
+    <row r="9" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="154" t="s">
+        <v>81</v>
+      </c>
       <c r="B9" s="154"/>
       <c r="C9" s="154"/>
       <c r="D9" s="154"/>
@@ -12760,15 +13067,127 @@
       <c r="G9" s="154"/>
       <c r="H9" s="154"/>
     </row>
-    <row r="10" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="154"/>
-      <c r="B10" s="154"/>
-      <c r="C10" s="154"/>
-      <c r="D10" s="154"/>
-      <c r="E10" s="154"/>
-      <c r="F10" s="154"/>
-      <c r="G10" s="154"/>
-      <c r="H10" s="154"/>
+    <row r="10" spans="1:43" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="52">
+        <v>45</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="54">
+        <v>3</v>
+      </c>
+      <c r="D10" s="55">
+        <v>2525</v>
+      </c>
+      <c r="E10" s="56">
+        <f t="shared" ref="E10:E11" si="1">C10*D10</f>
+        <v>7575</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="10"/>
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="10"/>
+      <c r="AM10" s="10"/>
+      <c r="AN10" s="10"/>
+      <c r="AO10" s="10"/>
+      <c r="AP10" s="10"/>
+      <c r="AQ10" s="10"/>
+    </row>
+    <row r="11" spans="1:43" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="52">
+        <v>50</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="54">
+        <v>2</v>
+      </c>
+      <c r="D11" s="55">
+        <v>2525</v>
+      </c>
+      <c r="E11" s="56">
+        <f t="shared" si="1"/>
+        <v>5050</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="10"/>
+      <c r="AJ11" s="10"/>
+      <c r="AK11" s="10"/>
+      <c r="AL11" s="10"/>
+      <c r="AM11" s="10"/>
+      <c r="AN11" s="10"/>
+      <c r="AO11" s="10"/>
+      <c r="AP11" s="10"/>
+      <c r="AQ11" s="10"/>
+    </row>
+    <row r="12" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="154"/>
+      <c r="B12" s="154"/>
+      <c r="C12" s="154"/>
+      <c r="D12" s="154"/>
+      <c r="E12" s="154"/>
+      <c r="F12" s="154"/>
+      <c r="G12" s="154"/>
+      <c r="H12" s="154"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tovar2.xlsx
+++ b/tovar2.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brandon\Desktop\tovar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brandon\Desktop\sklad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A83761-B814-44FC-8016-5F3778525882}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660"/>
   </bookViews>
   <sheets>
     <sheet name="Приход" sheetId="1" r:id="rId1"/>
     <sheet name="Расчеты" sheetId="2" r:id="rId2"/>
     <sheet name="Лист2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="101">
   <si>
     <t>сумма:</t>
   </si>
@@ -312,11 +311,35 @@
   <si>
     <t>DS-I203 (2,8</t>
   </si>
+  <si>
+    <t>HiWatch DS-N204(B) 4х канальный ip регистратор</t>
+  </si>
+  <si>
+    <t>HiWatch DS-N316(B) 16ти канальный регистратор</t>
+  </si>
+  <si>
+    <t>HiWatch DS-N208(B) 8ми канальный ip регистратор</t>
+  </si>
+  <si>
+    <t>AccordTec ML-180k(Серый) Замок электромагнитный (с уголком)</t>
+  </si>
+  <si>
+    <t>AccordTec ББП-80 (исп 1) блок бесперебойного питания</t>
+  </si>
+  <si>
+    <t>HiWatch DS-I203 C (4mm) 2мп уличная ip камера с exir подстветкой</t>
+  </si>
+  <si>
+    <t>HiWatch DVR-104P-G 4х канальный гибридный регистратор</t>
+  </si>
+  <si>
+    <t>HiWatch DVR-108-G/N 8 канальный гибридный регистратор</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1203,7 +1226,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1560,9 +1583,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1587,10 +1607,14 @@
     <xf numFmtId="4" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1" xr:uid="{654AD7C7-D5C8-44F0-82D3-DCFBFF8A4C51}"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -2747,11 +2771,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AQ84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6241,10 +6265,10 @@
       <c r="C63" s="16"/>
       <c r="D63" s="16"/>
       <c r="E63" s="16"/>
-      <c r="F63" s="167" t="s">
+      <c r="F63" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="G63" s="168">
+      <c r="G63" s="167">
         <f>SUM(E64:E72)</f>
         <v>64340</v>
       </c>
@@ -6289,38 +6313,38 @@
       <c r="A64" s="58">
         <v>60</v>
       </c>
-      <c r="B64" s="164" t="s">
+      <c r="B64" s="163" t="s">
         <v>82</v>
       </c>
-      <c r="C64" s="165">
+      <c r="C64" s="164">
         <v>1</v>
       </c>
-      <c r="D64" s="166">
+      <c r="D64" s="165">
         <v>2100</v>
       </c>
       <c r="E64" s="56">
         <f t="shared" si="2"/>
         <v>2100</v>
       </c>
-      <c r="F64" s="166"/>
-      <c r="G64" s="166"/>
-      <c r="H64" s="164"/>
-      <c r="I64" s="164"/>
-      <c r="J64" s="164"/>
-      <c r="K64" s="164"/>
-      <c r="L64" s="164"/>
-      <c r="M64" s="164"/>
-      <c r="N64" s="164"/>
-      <c r="O64" s="164"/>
-      <c r="P64" s="164"/>
-      <c r="Q64" s="164"/>
-      <c r="R64" s="164"/>
-      <c r="S64" s="164"/>
-      <c r="T64" s="164"/>
-      <c r="U64" s="164"/>
-      <c r="V64" s="164"/>
-      <c r="X64" s="165"/>
-      <c r="Y64" s="165"/>
+      <c r="F64" s="165"/>
+      <c r="G64" s="165"/>
+      <c r="H64" s="163"/>
+      <c r="I64" s="163"/>
+      <c r="J64" s="163"/>
+      <c r="K64" s="163"/>
+      <c r="L64" s="163"/>
+      <c r="M64" s="163"/>
+      <c r="N64" s="163"/>
+      <c r="O64" s="163"/>
+      <c r="P64" s="163"/>
+      <c r="Q64" s="163"/>
+      <c r="R64" s="163"/>
+      <c r="S64" s="163"/>
+      <c r="T64" s="163"/>
+      <c r="U64" s="163"/>
+      <c r="V64" s="163"/>
+      <c r="X64" s="164"/>
+      <c r="Y64" s="164"/>
       <c r="Z64" s="10"/>
       <c r="AA64" s="10"/>
       <c r="AB64" s="10"/>
@@ -6344,38 +6368,38 @@
       <c r="A65" s="58">
         <v>61</v>
       </c>
-      <c r="B65" s="164" t="s">
+      <c r="B65" s="163" t="s">
         <v>83</v>
       </c>
-      <c r="C65" s="165">
+      <c r="C65" s="164">
         <v>2</v>
       </c>
-      <c r="D65" s="166">
+      <c r="D65" s="165">
         <v>2900</v>
       </c>
       <c r="E65" s="56">
         <f t="shared" si="2"/>
         <v>5800</v>
       </c>
-      <c r="F65" s="166"/>
-      <c r="G65" s="166"/>
-      <c r="H65" s="164"/>
-      <c r="I65" s="164"/>
-      <c r="J65" s="164"/>
-      <c r="K65" s="164"/>
-      <c r="L65" s="164"/>
-      <c r="M65" s="164"/>
-      <c r="N65" s="164"/>
-      <c r="O65" s="164"/>
-      <c r="P65" s="164"/>
-      <c r="Q65" s="164"/>
-      <c r="R65" s="164"/>
-      <c r="S65" s="164"/>
-      <c r="T65" s="164"/>
-      <c r="U65" s="164"/>
-      <c r="V65" s="164"/>
-      <c r="X65" s="165"/>
-      <c r="Y65" s="165"/>
+      <c r="F65" s="165"/>
+      <c r="G65" s="165"/>
+      <c r="H65" s="163"/>
+      <c r="I65" s="163"/>
+      <c r="J65" s="163"/>
+      <c r="K65" s="163"/>
+      <c r="L65" s="163"/>
+      <c r="M65" s="163"/>
+      <c r="N65" s="163"/>
+      <c r="O65" s="163"/>
+      <c r="P65" s="163"/>
+      <c r="Q65" s="163"/>
+      <c r="R65" s="163"/>
+      <c r="S65" s="163"/>
+      <c r="T65" s="163"/>
+      <c r="U65" s="163"/>
+      <c r="V65" s="163"/>
+      <c r="X65" s="164"/>
+      <c r="Y65" s="164"/>
       <c r="Z65" s="10"/>
       <c r="AA65" s="10"/>
       <c r="AB65" s="10"/>
@@ -6399,38 +6423,38 @@
       <c r="A66" s="58">
         <v>62</v>
       </c>
-      <c r="B66" s="164" t="s">
+      <c r="B66" s="163" t="s">
         <v>84</v>
       </c>
-      <c r="C66" s="165">
+      <c r="C66" s="164">
         <v>2</v>
       </c>
-      <c r="D66" s="166">
+      <c r="D66" s="165">
         <v>3200</v>
       </c>
       <c r="E66" s="56">
         <f t="shared" si="2"/>
         <v>6400</v>
       </c>
-      <c r="F66" s="166"/>
-      <c r="G66" s="166"/>
-      <c r="H66" s="164"/>
-      <c r="I66" s="164"/>
-      <c r="J66" s="164"/>
-      <c r="K66" s="164"/>
-      <c r="L66" s="164"/>
-      <c r="M66" s="164"/>
-      <c r="N66" s="164"/>
-      <c r="O66" s="164"/>
-      <c r="P66" s="164"/>
-      <c r="Q66" s="164"/>
-      <c r="R66" s="164"/>
-      <c r="S66" s="164"/>
-      <c r="T66" s="164"/>
-      <c r="U66" s="164"/>
-      <c r="V66" s="164"/>
-      <c r="X66" s="165"/>
-      <c r="Y66" s="165"/>
+      <c r="F66" s="165"/>
+      <c r="G66" s="165"/>
+      <c r="H66" s="163"/>
+      <c r="I66" s="163"/>
+      <c r="J66" s="163"/>
+      <c r="K66" s="163"/>
+      <c r="L66" s="163"/>
+      <c r="M66" s="163"/>
+      <c r="N66" s="163"/>
+      <c r="O66" s="163"/>
+      <c r="P66" s="163"/>
+      <c r="Q66" s="163"/>
+      <c r="R66" s="163"/>
+      <c r="S66" s="163"/>
+      <c r="T66" s="163"/>
+      <c r="U66" s="163"/>
+      <c r="V66" s="163"/>
+      <c r="X66" s="164"/>
+      <c r="Y66" s="164"/>
       <c r="Z66" s="10"/>
       <c r="AA66" s="10"/>
       <c r="AB66" s="10"/>
@@ -6454,38 +6478,38 @@
       <c r="A67" s="58">
         <v>63</v>
       </c>
-      <c r="B67" s="164" t="s">
+      <c r="B67" s="163" t="s">
         <v>85</v>
       </c>
-      <c r="C67" s="165">
+      <c r="C67" s="164">
         <v>5</v>
       </c>
-      <c r="D67" s="166">
+      <c r="D67" s="165">
         <v>1300</v>
       </c>
       <c r="E67" s="56">
         <f t="shared" si="2"/>
         <v>6500</v>
       </c>
-      <c r="F67" s="166"/>
-      <c r="G67" s="166"/>
-      <c r="H67" s="164"/>
-      <c r="I67" s="164"/>
-      <c r="J67" s="164"/>
-      <c r="K67" s="164"/>
-      <c r="L67" s="164"/>
-      <c r="M67" s="164"/>
-      <c r="N67" s="164"/>
-      <c r="O67" s="164"/>
-      <c r="P67" s="164"/>
-      <c r="Q67" s="164"/>
-      <c r="R67" s="164"/>
-      <c r="S67" s="164"/>
-      <c r="T67" s="164"/>
-      <c r="U67" s="164"/>
-      <c r="V67" s="164"/>
-      <c r="X67" s="165"/>
-      <c r="Y67" s="165"/>
+      <c r="F67" s="165"/>
+      <c r="G67" s="165"/>
+      <c r="H67" s="163"/>
+      <c r="I67" s="163"/>
+      <c r="J67" s="163"/>
+      <c r="K67" s="163"/>
+      <c r="L67" s="163"/>
+      <c r="M67" s="163"/>
+      <c r="N67" s="163"/>
+      <c r="O67" s="163"/>
+      <c r="P67" s="163"/>
+      <c r="Q67" s="163"/>
+      <c r="R67" s="163"/>
+      <c r="S67" s="163"/>
+      <c r="T67" s="163"/>
+      <c r="U67" s="163"/>
+      <c r="V67" s="163"/>
+      <c r="X67" s="164"/>
+      <c r="Y67" s="164"/>
       <c r="Z67" s="10"/>
       <c r="AA67" s="10"/>
       <c r="AB67" s="10"/>
@@ -6509,38 +6533,38 @@
       <c r="A68" s="58">
         <v>64</v>
       </c>
-      <c r="B68" s="164" t="s">
+      <c r="B68" s="163" t="s">
         <v>86</v>
       </c>
-      <c r="C68" s="165">
+      <c r="C68" s="164">
         <v>10</v>
       </c>
-      <c r="D68" s="166">
+      <c r="D68" s="165">
         <v>1645</v>
       </c>
       <c r="E68" s="56">
         <f t="shared" si="2"/>
         <v>16450</v>
       </c>
-      <c r="F68" s="166"/>
-      <c r="G68" s="166"/>
-      <c r="H68" s="164"/>
-      <c r="I68" s="164"/>
-      <c r="J68" s="164"/>
-      <c r="K68" s="164"/>
-      <c r="L68" s="164"/>
-      <c r="M68" s="164"/>
-      <c r="N68" s="164"/>
-      <c r="O68" s="164"/>
-      <c r="P68" s="164"/>
-      <c r="Q68" s="164"/>
-      <c r="R68" s="164"/>
-      <c r="S68" s="164"/>
-      <c r="T68" s="164"/>
-      <c r="U68" s="164"/>
-      <c r="V68" s="164"/>
-      <c r="X68" s="165"/>
-      <c r="Y68" s="165"/>
+      <c r="F68" s="165"/>
+      <c r="G68" s="165"/>
+      <c r="H68" s="163"/>
+      <c r="I68" s="163"/>
+      <c r="J68" s="163"/>
+      <c r="K68" s="163"/>
+      <c r="L68" s="163"/>
+      <c r="M68" s="163"/>
+      <c r="N68" s="163"/>
+      <c r="O68" s="163"/>
+      <c r="P68" s="163"/>
+      <c r="Q68" s="163"/>
+      <c r="R68" s="163"/>
+      <c r="S68" s="163"/>
+      <c r="T68" s="163"/>
+      <c r="U68" s="163"/>
+      <c r="V68" s="163"/>
+      <c r="X68" s="164"/>
+      <c r="Y68" s="164"/>
       <c r="Z68" s="10"/>
       <c r="AA68" s="10"/>
       <c r="AB68" s="10"/>
@@ -6564,38 +6588,38 @@
       <c r="A69" s="58">
         <v>65</v>
       </c>
-      <c r="B69" s="164" t="s">
+      <c r="B69" s="163" t="s">
         <v>87</v>
       </c>
-      <c r="C69" s="165">
+      <c r="C69" s="164">
         <v>7</v>
       </c>
-      <c r="D69" s="166">
+      <c r="D69" s="165">
         <v>1100</v>
       </c>
       <c r="E69" s="56">
         <f t="shared" si="2"/>
         <v>7700</v>
       </c>
-      <c r="F69" s="166"/>
-      <c r="G69" s="166"/>
-      <c r="H69" s="164"/>
-      <c r="I69" s="164"/>
-      <c r="J69" s="164"/>
-      <c r="K69" s="164"/>
-      <c r="L69" s="164"/>
-      <c r="M69" s="164"/>
-      <c r="N69" s="164"/>
-      <c r="O69" s="164"/>
-      <c r="P69" s="164"/>
-      <c r="Q69" s="164"/>
-      <c r="R69" s="164"/>
-      <c r="S69" s="164"/>
-      <c r="T69" s="164"/>
-      <c r="U69" s="164"/>
-      <c r="V69" s="164"/>
-      <c r="X69" s="165"/>
-      <c r="Y69" s="165"/>
+      <c r="F69" s="165"/>
+      <c r="G69" s="165"/>
+      <c r="H69" s="163"/>
+      <c r="I69" s="163"/>
+      <c r="J69" s="163"/>
+      <c r="K69" s="163"/>
+      <c r="L69" s="163"/>
+      <c r="M69" s="163"/>
+      <c r="N69" s="163"/>
+      <c r="O69" s="163"/>
+      <c r="P69" s="163"/>
+      <c r="Q69" s="163"/>
+      <c r="R69" s="163"/>
+      <c r="S69" s="163"/>
+      <c r="T69" s="163"/>
+      <c r="U69" s="163"/>
+      <c r="V69" s="163"/>
+      <c r="X69" s="164"/>
+      <c r="Y69" s="164"/>
       <c r="Z69" s="10"/>
       <c r="AA69" s="10"/>
       <c r="AB69" s="10"/>
@@ -6619,38 +6643,38 @@
       <c r="A70" s="58">
         <v>66</v>
       </c>
-      <c r="B70" s="164" t="s">
+      <c r="B70" s="163" t="s">
         <v>88</v>
       </c>
-      <c r="C70" s="165">
+      <c r="C70" s="164">
         <v>10</v>
       </c>
-      <c r="D70" s="166">
+      <c r="D70" s="165">
         <v>1350</v>
       </c>
       <c r="E70" s="56">
         <f t="shared" si="2"/>
         <v>13500</v>
       </c>
-      <c r="F70" s="166"/>
-      <c r="G70" s="166"/>
-      <c r="H70" s="164"/>
-      <c r="I70" s="164"/>
-      <c r="J70" s="164"/>
-      <c r="K70" s="164"/>
-      <c r="L70" s="164"/>
-      <c r="M70" s="164"/>
-      <c r="N70" s="164"/>
-      <c r="O70" s="164"/>
-      <c r="P70" s="164"/>
-      <c r="Q70" s="164"/>
-      <c r="R70" s="164"/>
-      <c r="S70" s="164"/>
-      <c r="T70" s="164"/>
-      <c r="U70" s="164"/>
-      <c r="V70" s="164"/>
-      <c r="X70" s="165"/>
-      <c r="Y70" s="165"/>
+      <c r="F70" s="165"/>
+      <c r="G70" s="165"/>
+      <c r="H70" s="163"/>
+      <c r="I70" s="163"/>
+      <c r="J70" s="163"/>
+      <c r="K70" s="163"/>
+      <c r="L70" s="163"/>
+      <c r="M70" s="163"/>
+      <c r="N70" s="163"/>
+      <c r="O70" s="163"/>
+      <c r="P70" s="163"/>
+      <c r="Q70" s="163"/>
+      <c r="R70" s="163"/>
+      <c r="S70" s="163"/>
+      <c r="T70" s="163"/>
+      <c r="U70" s="163"/>
+      <c r="V70" s="163"/>
+      <c r="X70" s="164"/>
+      <c r="Y70" s="164"/>
       <c r="Z70" s="10"/>
       <c r="AA70" s="10"/>
       <c r="AB70" s="10"/>
@@ -6674,38 +6698,38 @@
       <c r="A71" s="58">
         <v>67</v>
       </c>
-      <c r="B71" s="164" t="s">
+      <c r="B71" s="163" t="s">
         <v>89</v>
       </c>
-      <c r="C71" s="165">
+      <c r="C71" s="164">
         <v>1</v>
       </c>
-      <c r="D71" s="166">
+      <c r="D71" s="165">
         <v>2745</v>
       </c>
       <c r="E71" s="56">
         <f t="shared" si="2"/>
         <v>2745</v>
       </c>
-      <c r="F71" s="166"/>
-      <c r="G71" s="166"/>
-      <c r="H71" s="164"/>
-      <c r="I71" s="164"/>
-      <c r="J71" s="164"/>
-      <c r="K71" s="164"/>
-      <c r="L71" s="164"/>
-      <c r="M71" s="164"/>
-      <c r="N71" s="164"/>
-      <c r="O71" s="164"/>
-      <c r="P71" s="164"/>
-      <c r="Q71" s="164"/>
-      <c r="R71" s="164"/>
-      <c r="S71" s="164"/>
-      <c r="T71" s="164"/>
-      <c r="U71" s="164"/>
-      <c r="V71" s="164"/>
-      <c r="X71" s="165"/>
-      <c r="Y71" s="165"/>
+      <c r="F71" s="165"/>
+      <c r="G71" s="165"/>
+      <c r="H71" s="163"/>
+      <c r="I71" s="163"/>
+      <c r="J71" s="163"/>
+      <c r="K71" s="163"/>
+      <c r="L71" s="163"/>
+      <c r="M71" s="163"/>
+      <c r="N71" s="163"/>
+      <c r="O71" s="163"/>
+      <c r="P71" s="163"/>
+      <c r="Q71" s="163"/>
+      <c r="R71" s="163"/>
+      <c r="S71" s="163"/>
+      <c r="T71" s="163"/>
+      <c r="U71" s="163"/>
+      <c r="V71" s="163"/>
+      <c r="X71" s="164"/>
+      <c r="Y71" s="164"/>
       <c r="Z71" s="10"/>
       <c r="AA71" s="10"/>
       <c r="AB71" s="10"/>
@@ -6729,38 +6753,38 @@
       <c r="A72" s="58">
         <v>68</v>
       </c>
-      <c r="B72" s="164" t="s">
+      <c r="B72" s="163" t="s">
         <v>90</v>
       </c>
-      <c r="C72" s="165">
+      <c r="C72" s="164">
         <v>1</v>
       </c>
-      <c r="D72" s="166">
+      <c r="D72" s="165">
         <v>3145</v>
       </c>
       <c r="E72" s="56">
         <f t="shared" si="2"/>
         <v>3145</v>
       </c>
-      <c r="F72" s="166"/>
-      <c r="G72" s="166"/>
-      <c r="H72" s="164"/>
-      <c r="I72" s="164"/>
-      <c r="J72" s="164"/>
-      <c r="K72" s="164"/>
-      <c r="L72" s="164"/>
-      <c r="M72" s="164"/>
-      <c r="N72" s="164"/>
-      <c r="O72" s="164"/>
-      <c r="P72" s="164"/>
-      <c r="Q72" s="164"/>
-      <c r="R72" s="164"/>
-      <c r="S72" s="164"/>
-      <c r="T72" s="164"/>
-      <c r="U72" s="164"/>
-      <c r="V72" s="164"/>
-      <c r="X72" s="165"/>
-      <c r="Y72" s="165"/>
+      <c r="F72" s="165"/>
+      <c r="G72" s="165"/>
+      <c r="H72" s="163"/>
+      <c r="I72" s="163"/>
+      <c r="J72" s="163"/>
+      <c r="K72" s="163"/>
+      <c r="L72" s="163"/>
+      <c r="M72" s="163"/>
+      <c r="N72" s="163"/>
+      <c r="O72" s="163"/>
+      <c r="P72" s="163"/>
+      <c r="Q72" s="163"/>
+      <c r="R72" s="163"/>
+      <c r="S72" s="163"/>
+      <c r="T72" s="163"/>
+      <c r="U72" s="163"/>
+      <c r="V72" s="163"/>
+      <c r="X72" s="164"/>
+      <c r="Y72" s="164"/>
       <c r="Z72" s="10"/>
       <c r="AA72" s="10"/>
       <c r="AB72" s="10"/>
@@ -6788,7 +6812,7 @@
       <c r="C73" s="10"/>
       <c r="D73" s="10"/>
       <c r="E73" s="10"/>
-      <c r="F73" s="167" t="s">
+      <c r="F73" s="166" t="s">
         <v>0</v>
       </c>
       <c r="G73" s="10">
@@ -6892,15 +6916,127 @@
       <c r="B75" s="148" t="s">
         <v>92</v>
       </c>
-      <c r="C75" s="169">
+      <c r="C75" s="168">
         <v>10</v>
       </c>
-      <c r="D75" s="170">
+      <c r="D75" s="169">
         <v>2525</v>
       </c>
       <c r="E75" s="10">
         <f>C75*D75</f>
         <v>25250</v>
+      </c>
+    </row>
+    <row r="77" spans="1:43" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C77" s="1">
+        <v>2</v>
+      </c>
+      <c r="D77" s="1">
+        <v>2580</v>
+      </c>
+      <c r="E77" s="1">
+        <v>5160</v>
+      </c>
+    </row>
+    <row r="78" spans="1:43" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="171" t="s">
+        <v>94</v>
+      </c>
+      <c r="C78" s="1">
+        <v>2</v>
+      </c>
+      <c r="D78" s="1">
+        <v>5605</v>
+      </c>
+      <c r="E78" s="1">
+        <v>11210</v>
+      </c>
+    </row>
+    <row r="79" spans="1:43" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="171" t="s">
+        <v>95</v>
+      </c>
+      <c r="C79" s="171">
+        <v>4</v>
+      </c>
+      <c r="D79" s="171">
+        <v>3570</v>
+      </c>
+      <c r="E79" s="1">
+        <v>14280</v>
+      </c>
+    </row>
+    <row r="80" spans="1:43" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="171" t="s">
+        <v>96</v>
+      </c>
+      <c r="C80" s="171">
+        <v>4</v>
+      </c>
+      <c r="D80" s="171">
+        <v>1597</v>
+      </c>
+      <c r="E80" s="171">
+        <v>6388</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="171" t="s">
+        <v>97</v>
+      </c>
+      <c r="C81" s="171">
+        <v>2</v>
+      </c>
+      <c r="D81" s="171">
+        <v>3234</v>
+      </c>
+      <c r="E81" s="171">
+        <v>6468</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="171" t="s">
+        <v>98</v>
+      </c>
+      <c r="C82" s="171">
+        <v>4</v>
+      </c>
+      <c r="D82" s="171">
+        <v>2525</v>
+      </c>
+      <c r="E82" s="171">
+        <v>10100</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="171" t="s">
+        <v>99</v>
+      </c>
+      <c r="C83" s="171">
+        <v>1</v>
+      </c>
+      <c r="D83" s="171">
+        <v>1920</v>
+      </c>
+      <c r="E83" s="171">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="171" t="s">
+        <v>100</v>
+      </c>
+      <c r="C84" s="171">
+        <v>1</v>
+      </c>
+      <c r="D84" s="1">
+        <v>2590</v>
+      </c>
+      <c r="E84" s="171">
+        <v>2590</v>
       </c>
     </row>
   </sheetData>
@@ -6913,7 +7049,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6944,59 +7080,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="170" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
-      <c r="L1" s="162"/>
-      <c r="M1" s="162"/>
-      <c r="N1" s="162"/>
-      <c r="O1" s="162"/>
-      <c r="P1" s="162"/>
-      <c r="Q1" s="162"/>
-      <c r="R1" s="162"/>
-      <c r="S1" s="162"/>
-      <c r="T1" s="162"/>
-      <c r="U1" s="162"/>
-      <c r="V1" s="162"/>
-      <c r="W1" s="162"/>
-      <c r="X1" s="162"/>
-      <c r="Y1" s="162"/>
-      <c r="Z1" s="162"/>
-      <c r="AA1" s="162"/>
-      <c r="AB1" s="162"/>
-      <c r="AC1" s="162"/>
-      <c r="AD1" s="162"/>
-      <c r="AE1" s="162"/>
-      <c r="AF1" s="162"/>
-      <c r="AG1" s="162"/>
-      <c r="AH1" s="162"/>
-      <c r="AI1" s="162"/>
-      <c r="AJ1" s="162"/>
-      <c r="AK1" s="162"/>
-      <c r="AL1" s="162"/>
-      <c r="AM1" s="162"/>
-      <c r="AN1" s="162"/>
-      <c r="AO1" s="162"/>
-      <c r="AP1" s="162"/>
-      <c r="AQ1" s="162"/>
-      <c r="AR1" s="162"/>
-      <c r="AS1" s="162"/>
-      <c r="AT1" s="162"/>
-      <c r="AU1" s="162"/>
-      <c r="AV1" s="162"/>
-      <c r="AW1" s="162"/>
-      <c r="AX1" s="162"/>
-      <c r="AY1" s="162"/>
+      <c r="B1" s="170"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="170"/>
+      <c r="H1" s="170"/>
+      <c r="I1" s="170"/>
+      <c r="J1" s="170"/>
+      <c r="K1" s="170"/>
+      <c r="L1" s="170"/>
+      <c r="M1" s="170"/>
+      <c r="N1" s="170"/>
+      <c r="O1" s="170"/>
+      <c r="P1" s="170"/>
+      <c r="Q1" s="170"/>
+      <c r="R1" s="170"/>
+      <c r="S1" s="170"/>
+      <c r="T1" s="170"/>
+      <c r="U1" s="170"/>
+      <c r="V1" s="170"/>
+      <c r="W1" s="170"/>
+      <c r="X1" s="170"/>
+      <c r="Y1" s="170"/>
+      <c r="Z1" s="170"/>
+      <c r="AA1" s="170"/>
+      <c r="AB1" s="170"/>
+      <c r="AC1" s="170"/>
+      <c r="AD1" s="170"/>
+      <c r="AE1" s="170"/>
+      <c r="AF1" s="170"/>
+      <c r="AG1" s="170"/>
+      <c r="AH1" s="170"/>
+      <c r="AI1" s="170"/>
+      <c r="AJ1" s="170"/>
+      <c r="AK1" s="170"/>
+      <c r="AL1" s="170"/>
+      <c r="AM1" s="170"/>
+      <c r="AN1" s="170"/>
+      <c r="AO1" s="170"/>
+      <c r="AP1" s="170"/>
+      <c r="AQ1" s="170"/>
+      <c r="AR1" s="170"/>
+      <c r="AS1" s="170"/>
+      <c r="AT1" s="170"/>
+      <c r="AU1" s="170"/>
+      <c r="AV1" s="170"/>
+      <c r="AW1" s="170"/>
+      <c r="AX1" s="170"/>
+      <c r="AY1" s="170"/>
     </row>
     <row r="2" spans="1:51" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="60"/>
@@ -12833,7 +12969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -12998,41 +13134,41 @@
       <c r="F7" s="9"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
-      <c r="I7" s="163"/>
-      <c r="J7" s="163"/>
-      <c r="K7" s="163"/>
-      <c r="L7" s="163"/>
-      <c r="M7" s="163"/>
-      <c r="N7" s="163"/>
-      <c r="O7" s="163"/>
-      <c r="P7" s="163"/>
-      <c r="Q7" s="163"/>
-      <c r="R7" s="163"/>
-      <c r="S7" s="163"/>
-      <c r="T7" s="163"/>
-      <c r="U7" s="163"/>
-      <c r="V7" s="163"/>
-      <c r="W7" s="163"/>
-      <c r="X7" s="163"/>
-      <c r="Y7" s="163"/>
-      <c r="Z7" s="163"/>
-      <c r="AA7" s="163"/>
-      <c r="AB7" s="163"/>
-      <c r="AC7" s="163"/>
-      <c r="AD7" s="163"/>
-      <c r="AE7" s="163"/>
-      <c r="AF7" s="163"/>
-      <c r="AG7" s="163"/>
-      <c r="AH7" s="163"/>
-      <c r="AI7" s="163"/>
-      <c r="AJ7" s="163"/>
-      <c r="AK7" s="163"/>
-      <c r="AL7" s="163"/>
-      <c r="AM7" s="163"/>
-      <c r="AN7" s="163"/>
-      <c r="AO7" s="163"/>
-      <c r="AP7" s="163"/>
-      <c r="AQ7" s="163"/>
+      <c r="I7" s="162"/>
+      <c r="J7" s="162"/>
+      <c r="K7" s="162"/>
+      <c r="L7" s="162"/>
+      <c r="M7" s="162"/>
+      <c r="N7" s="162"/>
+      <c r="O7" s="162"/>
+      <c r="P7" s="162"/>
+      <c r="Q7" s="162"/>
+      <c r="R7" s="162"/>
+      <c r="S7" s="162"/>
+      <c r="T7" s="162"/>
+      <c r="U7" s="162"/>
+      <c r="V7" s="162"/>
+      <c r="W7" s="162"/>
+      <c r="X7" s="162"/>
+      <c r="Y7" s="162"/>
+      <c r="Z7" s="162"/>
+      <c r="AA7" s="162"/>
+      <c r="AB7" s="162"/>
+      <c r="AC7" s="162"/>
+      <c r="AD7" s="162"/>
+      <c r="AE7" s="162"/>
+      <c r="AF7" s="162"/>
+      <c r="AG7" s="162"/>
+      <c r="AH7" s="162"/>
+      <c r="AI7" s="162"/>
+      <c r="AJ7" s="162"/>
+      <c r="AK7" s="162"/>
+      <c r="AL7" s="162"/>
+      <c r="AM7" s="162"/>
+      <c r="AN7" s="162"/>
+      <c r="AO7" s="162"/>
+      <c r="AP7" s="162"/>
+      <c r="AQ7" s="162"/>
     </row>
     <row r="8" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28">

--- a/tovar2.xlsx
+++ b/tovar2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Приход" sheetId="1" r:id="rId1"/>
@@ -17,21 +17,11 @@
     <sheet name="Лист2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="139">
   <si>
     <t>сумма:</t>
   </si>
@@ -335,6 +325,120 @@
   <si>
     <t>HiWatch DVR-108-G/N 8 канальный гибридный регистратор</t>
   </si>
+  <si>
+    <t>AccordTec ББП-80  блок бесперебойного питания без корпуса</t>
+  </si>
+  <si>
+    <t>EZ-HAC-B5B20P-A-0360B 2Мп Видеокамера HDCVI цилиндрическая</t>
+  </si>
+  <si>
+    <t>EZ-HAC-T6B20P-LED-0360B Видеокамера</t>
+  </si>
+  <si>
+    <t>EZ-IPC-D3B20P-0280B Видеокамера IP купольная антивандальная</t>
+  </si>
+  <si>
+    <t>EZ-IPC-T1B41P-0280B Видеокамера IP купольная</t>
+  </si>
+  <si>
+    <t>EZ-IPC-B1B20P-LED-0280B Видеокамера IP цилиндрическая</t>
+  </si>
+  <si>
+    <t>EZ-IPC-B1B41P-0280B Видеокамера IP цилиндрическая</t>
+  </si>
+  <si>
+    <t>EZ-IPC-B3B20P-0280B IP-видеокамера</t>
+  </si>
+  <si>
+    <t>EZ-IPC-B3B41P-0280B Видеокамера IP цилиндрическая</t>
+  </si>
+  <si>
+    <t>EZ-IPC-B3B41P-0360B Видеокамера IP цилиндрическая</t>
+  </si>
+  <si>
+    <t>EZ-IPC-D1B20P-0360B IP-камера 2-мегапиксельная инфракрасная купольная сетевая камера</t>
+  </si>
+  <si>
+    <t>EZ-IPC-D3B41P-0280B Видеокамера IP купольная антивандальна</t>
+  </si>
+  <si>
+    <t>EZ-IPC-C1B20P-W Видеокамера IP кубическая</t>
+  </si>
+  <si>
+    <t>EZ-NVR1B08 8-канальный сетевой видеорегистратор</t>
+  </si>
+  <si>
+    <t>EZ-XVR1B08 8-канальный гибридный видеорегситратор</t>
+  </si>
+  <si>
+    <t>торус</t>
+  </si>
+  <si>
+    <t>торус 2</t>
+  </si>
+  <si>
+    <t>DH-HAC-HDW3200GP-0280B Видеокамера купольная мультиформатная (4 в 1) 2Мп; 2,8мм</t>
+  </si>
+  <si>
+    <t>DH-HAC-HDW3200GP-0360B Видеокамера купольная мультиформатная (4 в 1) 2Мп; 3,6мм</t>
+  </si>
+  <si>
+    <t>Видеокамера HDCVI уличная DH-HAC-HFW1230RP-Z-IRE6</t>
+  </si>
+  <si>
+    <t>DH-IPC-HDBW3241EP-AS-0280B 2Мп купольная сетевая видеокамера</t>
+  </si>
+  <si>
+    <t>Видеокамера IP DH-IPC-HFW3241EP-SA-0280B</t>
+  </si>
+  <si>
+    <t>DH-XVR5104HS-I2 Интеллектуальный видеорегистратор 4-х канальный 5-и форматный</t>
+  </si>
+  <si>
+    <t>DH-XVR5108HS-I2 Интеллектуальный видеорегистратор 8-и канальный 5-и форматный</t>
+  </si>
+  <si>
+    <t>DHI-NVR2104-I Видеорегистратор IP серии AI</t>
+  </si>
+  <si>
+    <t>торус 3</t>
+  </si>
+  <si>
+    <t>IP видеокамера купольная DH-IPC-HDW2230TP-AS-0360B</t>
+  </si>
+  <si>
+    <t>DH-IPC-HDBW2431EP-S-0280B IP-видеокамера, уличная купольная 4 Мп</t>
+  </si>
+  <si>
+    <t>DH-IPC-HFW2431SP-S-0280B уличная IP видеокамера</t>
+  </si>
+  <si>
+    <t>IP-видеокамера DH-IPC-HFW3441EP-SA-0280B</t>
+  </si>
+  <si>
+    <t>Видеокамера купольная DH-HAC-HDW1801MP-0280B</t>
+  </si>
+  <si>
+    <t>Антон Желев</t>
+  </si>
+  <si>
+    <t>Игорь Кречетов</t>
+  </si>
+  <si>
+    <t>Петр Мисюль</t>
+  </si>
+  <si>
+    <t>1.2%</t>
+  </si>
+  <si>
+    <t>Ваня Балашов</t>
+  </si>
+  <si>
+    <t>Замок smartec</t>
+  </si>
+  <si>
+    <t>на склад</t>
+  </si>
 </sst>
 </file>
 
@@ -459,7 +563,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="61">
+  <borders count="63">
     <border>
       <left/>
       <right/>
@@ -1221,12 +1325,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1607,10 +1741,61 @@
     <xf numFmtId="4" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2772,10 +2957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ84"/>
+  <dimension ref="A1:AQ122"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85"/>
+    <sheetView showGridLines="0" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2789,8 +2974,10 @@
     <col min="7" max="7" width="10.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="1" customWidth="1"/>
-    <col min="11" max="43" width="9.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="34.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="25.28515625" style="1" customWidth="1"/>
+    <col min="13" max="43" width="9.140625" style="1" customWidth="1"/>
     <col min="44" max="44" width="8.85546875" style="1" customWidth="1"/>
     <col min="45" max="16384" width="8.85546875" style="1"/>
   </cols>
@@ -2813,8 +3000,8 @@
         <v>1</v>
       </c>
       <c r="J1" s="8">
-        <f>SUM(G1:G74)</f>
-        <v>722198</v>
+        <f>SUM(G1:G210)</f>
+        <v>1025788.2</v>
       </c>
       <c r="K1" s="9"/>
       <c r="L1" s="10"/>
@@ -2874,10 +3061,13 @@
         <v>3</v>
       </c>
       <c r="J2" s="18">
-        <v>700000</v>
+        <v>850000</v>
       </c>
       <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
+      <c r="L2" s="190">
+        <f>J2-Лист2!H2+Лист2!J2</f>
+        <v>859881</v>
+      </c>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
@@ -2935,7 +3125,7 @@
       </c>
       <c r="J3" s="21">
         <f>J2-J1</f>
-        <v>-22198</v>
+        <v>-175788.19999999995</v>
       </c>
       <c r="K3" s="9"/>
       <c r="L3" s="10"/>
@@ -4985,8 +5175,8 @@
         <v>0</v>
       </c>
       <c r="G40" s="51">
-        <f>SUM(E41:E62)</f>
-        <v>286485</v>
+        <f>SUM(E41:E59)</f>
+        <v>225185</v>
       </c>
       <c r="H40" s="9"/>
       <c r="I40" s="10"/>
@@ -5039,7 +5229,7 @@
         <v>10995</v>
       </c>
       <c r="E41" s="56">
-        <f t="shared" ref="E41:E72" si="2">C41*D41</f>
+        <f t="shared" ref="E41:E69" si="2">C41*D41</f>
         <v>10995</v>
       </c>
       <c r="F41" s="15"/>
@@ -6090,24 +6280,20 @@
       <c r="AQ59" s="10"/>
     </row>
     <row r="60" spans="1:43" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="52">
-        <v>56</v>
-      </c>
-      <c r="B60" s="53" t="s">
+      <c r="A60" s="57">
         <v>59</v>
       </c>
-      <c r="C60" s="54">
-        <v>2</v>
-      </c>
-      <c r="D60" s="55">
-        <v>5160</v>
-      </c>
-      <c r="E60" s="56">
-        <f t="shared" si="2"/>
-        <v>10320</v>
-      </c>
-      <c r="F60" s="9"/>
-      <c r="G60" s="10"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="166" t="s">
+        <v>0</v>
+      </c>
+      <c r="G60" s="167">
+        <f>SUM(E61:E69)</f>
+        <v>64340</v>
+      </c>
       <c r="H60" s="10"/>
       <c r="I60" s="10"/>
       <c r="J60" s="10"/>
@@ -6146,42 +6332,41 @@
       <c r="AQ60" s="10"/>
     </row>
     <row r="61" spans="1:43" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="52">
-        <v>57</v>
-      </c>
-      <c r="B61" s="53" t="s">
+      <c r="A61" s="58">
         <v>60</v>
       </c>
-      <c r="C61" s="54">
-        <v>2</v>
-      </c>
-      <c r="D61" s="55">
-        <v>11210</v>
+      <c r="B61" s="163" t="s">
+        <v>82</v>
+      </c>
+      <c r="C61" s="164">
+        <v>1</v>
+      </c>
+      <c r="D61" s="165">
+        <v>2100</v>
       </c>
       <c r="E61" s="56">
         <f t="shared" si="2"/>
-        <v>22420</v>
-      </c>
-      <c r="F61" s="9"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="10"/>
-      <c r="K61" s="10"/>
-      <c r="L61" s="10"/>
-      <c r="M61" s="10"/>
-      <c r="N61" s="10"/>
-      <c r="O61" s="10"/>
-      <c r="P61" s="10"/>
-      <c r="Q61" s="10"/>
-      <c r="R61" s="10"/>
-      <c r="S61" s="10"/>
-      <c r="T61" s="10"/>
-      <c r="U61" s="10"/>
-      <c r="V61" s="10"/>
-      <c r="W61" s="10"/>
-      <c r="X61" s="10"/>
-      <c r="Y61" s="10"/>
+        <v>2100</v>
+      </c>
+      <c r="F61" s="165"/>
+      <c r="G61" s="165"/>
+      <c r="H61" s="163"/>
+      <c r="I61" s="163"/>
+      <c r="J61" s="163"/>
+      <c r="K61" s="163"/>
+      <c r="L61" s="163"/>
+      <c r="M61" s="163"/>
+      <c r="N61" s="163"/>
+      <c r="O61" s="163"/>
+      <c r="P61" s="163"/>
+      <c r="Q61" s="163"/>
+      <c r="R61" s="163"/>
+      <c r="S61" s="163"/>
+      <c r="T61" s="163"/>
+      <c r="U61" s="163"/>
+      <c r="V61" s="163"/>
+      <c r="X61" s="164"/>
+      <c r="Y61" s="164"/>
       <c r="Z61" s="10"/>
       <c r="AA61" s="10"/>
       <c r="AB61" s="10"/>
@@ -6202,42 +6387,41 @@
       <c r="AQ61" s="10"/>
     </row>
     <row r="62" spans="1:43" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="52">
-        <v>58</v>
-      </c>
-      <c r="B62" s="53" t="s">
+      <c r="A62" s="58">
         <v>61</v>
       </c>
-      <c r="C62" s="54">
-        <v>4</v>
-      </c>
-      <c r="D62" s="55">
-        <v>7140</v>
+      <c r="B62" s="163" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62" s="164">
+        <v>2</v>
+      </c>
+      <c r="D62" s="165">
+        <v>2900</v>
       </c>
       <c r="E62" s="56">
         <f t="shared" si="2"/>
-        <v>28560</v>
-      </c>
-      <c r="F62" s="9"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="10"/>
-      <c r="J62" s="10"/>
-      <c r="K62" s="10"/>
-      <c r="L62" s="10"/>
-      <c r="M62" s="10"/>
-      <c r="N62" s="10"/>
-      <c r="O62" s="10"/>
-      <c r="P62" s="10"/>
-      <c r="Q62" s="10"/>
-      <c r="R62" s="10"/>
-      <c r="S62" s="10"/>
-      <c r="T62" s="10"/>
-      <c r="U62" s="10"/>
-      <c r="V62" s="10"/>
-      <c r="W62" s="10"/>
-      <c r="X62" s="10"/>
-      <c r="Y62" s="10"/>
+        <v>5800</v>
+      </c>
+      <c r="F62" s="165"/>
+      <c r="G62" s="165"/>
+      <c r="H62" s="163"/>
+      <c r="I62" s="163"/>
+      <c r="J62" s="163"/>
+      <c r="K62" s="163"/>
+      <c r="L62" s="163"/>
+      <c r="M62" s="163"/>
+      <c r="N62" s="163"/>
+      <c r="O62" s="163"/>
+      <c r="P62" s="163"/>
+      <c r="Q62" s="163"/>
+      <c r="R62" s="163"/>
+      <c r="S62" s="163"/>
+      <c r="T62" s="163"/>
+      <c r="U62" s="163"/>
+      <c r="V62" s="163"/>
+      <c r="X62" s="164"/>
+      <c r="Y62" s="164"/>
       <c r="Z62" s="10"/>
       <c r="AA62" s="10"/>
       <c r="AB62" s="10"/>
@@ -6258,38 +6442,41 @@
       <c r="AQ62" s="10"/>
     </row>
     <row r="63" spans="1:43" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="57">
-        <v>59</v>
-      </c>
-      <c r="B63" s="16"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="166" t="s">
-        <v>0</v>
-      </c>
-      <c r="G63" s="167">
-        <f>SUM(E64:E72)</f>
-        <v>64340</v>
-      </c>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="10"/>
-      <c r="K63" s="10"/>
-      <c r="L63" s="10"/>
-      <c r="M63" s="10"/>
-      <c r="N63" s="10"/>
-      <c r="O63" s="10"/>
-      <c r="P63" s="10"/>
-      <c r="Q63" s="10"/>
-      <c r="R63" s="10"/>
-      <c r="S63" s="10"/>
-      <c r="T63" s="10"/>
-      <c r="U63" s="10"/>
-      <c r="V63" s="10"/>
-      <c r="W63" s="10"/>
-      <c r="X63" s="10"/>
-      <c r="Y63" s="10"/>
+      <c r="A63" s="58">
+        <v>62</v>
+      </c>
+      <c r="B63" s="163" t="s">
+        <v>84</v>
+      </c>
+      <c r="C63" s="164">
+        <v>2</v>
+      </c>
+      <c r="D63" s="165">
+        <v>3200</v>
+      </c>
+      <c r="E63" s="56">
+        <f t="shared" si="2"/>
+        <v>6400</v>
+      </c>
+      <c r="F63" s="165"/>
+      <c r="G63" s="165"/>
+      <c r="H63" s="163"/>
+      <c r="I63" s="163"/>
+      <c r="J63" s="163"/>
+      <c r="K63" s="163"/>
+      <c r="L63" s="163"/>
+      <c r="M63" s="163"/>
+      <c r="N63" s="163"/>
+      <c r="O63" s="163"/>
+      <c r="P63" s="163"/>
+      <c r="Q63" s="163"/>
+      <c r="R63" s="163"/>
+      <c r="S63" s="163"/>
+      <c r="T63" s="163"/>
+      <c r="U63" s="163"/>
+      <c r="V63" s="163"/>
+      <c r="X63" s="164"/>
+      <c r="Y63" s="164"/>
       <c r="Z63" s="10"/>
       <c r="AA63" s="10"/>
       <c r="AB63" s="10"/>
@@ -6311,20 +6498,20 @@
     </row>
     <row r="64" spans="1:43" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="58">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B64" s="163" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C64" s="164">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D64" s="165">
-        <v>2100</v>
+        <v>1300</v>
       </c>
       <c r="E64" s="56">
         <f t="shared" si="2"/>
-        <v>2100</v>
+        <v>6500</v>
       </c>
       <c r="F64" s="165"/>
       <c r="G64" s="165"/>
@@ -6366,20 +6553,20 @@
     </row>
     <row r="65" spans="1:43" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="58">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B65" s="163" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C65" s="164">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D65" s="165">
-        <v>2900</v>
+        <v>1645</v>
       </c>
       <c r="E65" s="56">
         <f t="shared" si="2"/>
-        <v>5800</v>
+        <v>16450</v>
       </c>
       <c r="F65" s="165"/>
       <c r="G65" s="165"/>
@@ -6421,20 +6608,20 @@
     </row>
     <row r="66" spans="1:43" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="58">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B66" s="163" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C66" s="164">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D66" s="165">
-        <v>3200</v>
+        <v>1100</v>
       </c>
       <c r="E66" s="56">
         <f t="shared" si="2"/>
-        <v>6400</v>
+        <v>7700</v>
       </c>
       <c r="F66" s="165"/>
       <c r="G66" s="165"/>
@@ -6476,20 +6663,20 @@
     </row>
     <row r="67" spans="1:43" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="58">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B67" s="163" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C67" s="164">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D67" s="165">
-        <v>1300</v>
+        <v>1350</v>
       </c>
       <c r="E67" s="56">
         <f t="shared" si="2"/>
-        <v>6500</v>
+        <v>13500</v>
       </c>
       <c r="F67" s="165"/>
       <c r="G67" s="165"/>
@@ -6531,20 +6718,20 @@
     </row>
     <row r="68" spans="1:43" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="58">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B68" s="163" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C68" s="164">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D68" s="165">
-        <v>1645</v>
+        <v>2745</v>
       </c>
       <c r="E68" s="56">
         <f t="shared" si="2"/>
-        <v>16450</v>
+        <v>2745</v>
       </c>
       <c r="F68" s="165"/>
       <c r="G68" s="165"/>
@@ -6586,20 +6773,20 @@
     </row>
     <row r="69" spans="1:43" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="58">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B69" s="163" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C69" s="164">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D69" s="165">
-        <v>1100</v>
+        <v>3145</v>
       </c>
       <c r="E69" s="56">
         <f t="shared" si="2"/>
-        <v>7700</v>
+        <v>3145</v>
       </c>
       <c r="F69" s="165"/>
       <c r="G69" s="165"/>
@@ -6641,40 +6828,37 @@
     </row>
     <row r="70" spans="1:43" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="58">
-        <v>66</v>
-      </c>
-      <c r="B70" s="163" t="s">
-        <v>88</v>
-      </c>
-      <c r="C70" s="164">
-        <v>10</v>
-      </c>
-      <c r="D70" s="165">
-        <v>1350</v>
-      </c>
-      <c r="E70" s="56">
-        <f t="shared" si="2"/>
-        <v>13500</v>
-      </c>
-      <c r="F70" s="165"/>
-      <c r="G70" s="165"/>
-      <c r="H70" s="163"/>
-      <c r="I70" s="163"/>
-      <c r="J70" s="163"/>
-      <c r="K70" s="163"/>
-      <c r="L70" s="163"/>
-      <c r="M70" s="163"/>
-      <c r="N70" s="163"/>
-      <c r="O70" s="163"/>
-      <c r="P70" s="163"/>
-      <c r="Q70" s="163"/>
-      <c r="R70" s="163"/>
-      <c r="S70" s="163"/>
-      <c r="T70" s="163"/>
-      <c r="U70" s="163"/>
-      <c r="V70" s="163"/>
-      <c r="X70" s="164"/>
-      <c r="Y70" s="164"/>
+        <v>69</v>
+      </c>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="166" t="s">
+        <v>0</v>
+      </c>
+      <c r="G70" s="10">
+        <f>SUM(E71:E72)</f>
+        <v>50500</v>
+      </c>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="10"/>
+      <c r="L70" s="10"/>
+      <c r="M70" s="10"/>
+      <c r="N70" s="10"/>
+      <c r="O70" s="10"/>
+      <c r="P70" s="10"/>
+      <c r="Q70" s="10"/>
+      <c r="R70" s="10"/>
+      <c r="S70" s="10"/>
+      <c r="T70" s="10"/>
+      <c r="U70" s="10"/>
+      <c r="V70" s="10"/>
+      <c r="W70" s="10"/>
+      <c r="X70" s="10"/>
+      <c r="Y70" s="10"/>
       <c r="Z70" s="10"/>
       <c r="AA70" s="10"/>
       <c r="AB70" s="10"/>
@@ -6696,40 +6880,41 @@
     </row>
     <row r="71" spans="1:43" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="58">
-        <v>67</v>
-      </c>
-      <c r="B71" s="163" t="s">
-        <v>89</v>
-      </c>
-      <c r="C71" s="164">
-        <v>1</v>
-      </c>
-      <c r="D71" s="165">
-        <v>2745</v>
-      </c>
-      <c r="E71" s="56">
-        <f t="shared" si="2"/>
-        <v>2745</v>
-      </c>
-      <c r="F71" s="165"/>
-      <c r="G71" s="165"/>
-      <c r="H71" s="163"/>
-      <c r="I71" s="163"/>
-      <c r="J71" s="163"/>
-      <c r="K71" s="163"/>
-      <c r="L71" s="163"/>
-      <c r="M71" s="163"/>
-      <c r="N71" s="163"/>
-      <c r="O71" s="163"/>
-      <c r="P71" s="163"/>
-      <c r="Q71" s="163"/>
-      <c r="R71" s="163"/>
-      <c r="S71" s="163"/>
-      <c r="T71" s="163"/>
-      <c r="U71" s="163"/>
-      <c r="V71" s="163"/>
-      <c r="X71" s="164"/>
-      <c r="Y71" s="164"/>
+        <v>70</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C71" s="10">
+        <v>10</v>
+      </c>
+      <c r="D71" s="10">
+        <v>2525</v>
+      </c>
+      <c r="E71" s="10">
+        <f>C71*D71</f>
+        <v>25250</v>
+      </c>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="10"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="10"/>
+      <c r="O71" s="10"/>
+      <c r="P71" s="10"/>
+      <c r="Q71" s="10"/>
+      <c r="R71" s="10"/>
+      <c r="S71" s="10"/>
+      <c r="T71" s="10"/>
+      <c r="U71" s="10"/>
+      <c r="V71" s="10"/>
+      <c r="W71" s="10"/>
+      <c r="X71" s="10"/>
+      <c r="Y71" s="10"/>
       <c r="Z71" s="10"/>
       <c r="AA71" s="10"/>
       <c r="AB71" s="10"/>
@@ -6750,293 +6935,753 @@
       <c r="AQ71" s="10"/>
     </row>
     <row r="72" spans="1:43" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="58">
-        <v>68</v>
-      </c>
-      <c r="B72" s="163" t="s">
-        <v>90</v>
-      </c>
-      <c r="C72" s="164">
+      <c r="B72" s="148" t="s">
+        <v>92</v>
+      </c>
+      <c r="C72" s="168">
+        <v>10</v>
+      </c>
+      <c r="D72" s="169">
+        <v>2525</v>
+      </c>
+      <c r="E72" s="10">
+        <f>C72*D72</f>
+        <v>25250</v>
+      </c>
+    </row>
+    <row r="74" spans="1:43" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C74" s="1">
+        <v>2</v>
+      </c>
+      <c r="D74" s="1">
+        <v>2580</v>
+      </c>
+      <c r="E74" s="1">
+        <v>5160</v>
+      </c>
+      <c r="G74" s="1">
+        <f>SUM(E74:E82)</f>
+        <v>62815.199999999997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:43" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="170" t="s">
+        <v>94</v>
+      </c>
+      <c r="C75" s="1">
+        <v>2</v>
+      </c>
+      <c r="D75" s="1">
+        <v>5605</v>
+      </c>
+      <c r="E75" s="1">
+        <v>11210</v>
+      </c>
+    </row>
+    <row r="76" spans="1:43" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="170" t="s">
+        <v>95</v>
+      </c>
+      <c r="C76" s="170">
+        <v>4</v>
+      </c>
+      <c r="D76" s="170">
+        <v>3570</v>
+      </c>
+      <c r="E76" s="1">
+        <v>14280</v>
+      </c>
+    </row>
+    <row r="77" spans="1:43" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="170" t="s">
+        <v>96</v>
+      </c>
+      <c r="C77" s="170">
+        <v>4</v>
+      </c>
+      <c r="D77" s="170">
+        <v>1597</v>
+      </c>
+      <c r="E77" s="170">
+        <v>6388</v>
+      </c>
+    </row>
+    <row r="78" spans="1:43" s="148" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="170" t="s">
+        <v>101</v>
+      </c>
+      <c r="C78" s="170">
+        <v>2</v>
+      </c>
+      <c r="D78" s="170">
+        <v>2349.6</v>
+      </c>
+      <c r="E78" s="170">
+        <v>4699.2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:43" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="170" t="s">
+        <v>97</v>
+      </c>
+      <c r="C79" s="170">
+        <v>2</v>
+      </c>
+      <c r="D79" s="170">
+        <v>3234</v>
+      </c>
+      <c r="E79" s="170">
+        <v>6468</v>
+      </c>
+    </row>
+    <row r="80" spans="1:43" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="170" t="s">
+        <v>98</v>
+      </c>
+      <c r="C80" s="170">
+        <v>4</v>
+      </c>
+      <c r="D80" s="170">
+        <v>2525</v>
+      </c>
+      <c r="E80" s="170">
+        <v>10100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="170" t="s">
+        <v>99</v>
+      </c>
+      <c r="C81" s="170">
         <v>1</v>
       </c>
-      <c r="D72" s="165">
+      <c r="D81" s="170">
+        <v>1920</v>
+      </c>
+      <c r="E81" s="170">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="170" t="s">
+        <v>100</v>
+      </c>
+      <c r="C82" s="170">
+        <v>1</v>
+      </c>
+      <c r="D82" s="1">
+        <v>2590</v>
+      </c>
+      <c r="E82" s="170">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="177" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="172">
+        <v>1</v>
+      </c>
+      <c r="B85" s="173" t="s">
+        <v>102</v>
+      </c>
+      <c r="C85" s="174">
+        <v>1</v>
+      </c>
+      <c r="D85" s="175">
+        <v>1445</v>
+      </c>
+      <c r="E85" s="176">
+        <v>1445</v>
+      </c>
+      <c r="G85" s="178">
+        <f>SUM(E85:E102)</f>
+        <v>189735</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="172">
+        <v>2</v>
+      </c>
+      <c r="B86" s="173" t="s">
+        <v>103</v>
+      </c>
+      <c r="C86" s="174">
+        <v>1</v>
+      </c>
+      <c r="D86" s="175">
+        <v>1395</v>
+      </c>
+      <c r="E86" s="176">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="172">
+        <v>3</v>
+      </c>
+      <c r="B87" s="173" t="s">
+        <v>104</v>
+      </c>
+      <c r="C87" s="174">
+        <v>1</v>
+      </c>
+      <c r="D87" s="175">
+        <v>3495</v>
+      </c>
+      <c r="E87" s="176">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="172">
+        <v>4</v>
+      </c>
+      <c r="B88" s="173" t="s">
+        <v>105</v>
+      </c>
+      <c r="C88" s="174">
+        <v>1</v>
+      </c>
+      <c r="D88" s="175">
+        <v>3295</v>
+      </c>
+      <c r="E88" s="176">
+        <v>3295</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="172">
+        <v>5</v>
+      </c>
+      <c r="B89" s="173" t="s">
+        <v>103</v>
+      </c>
+      <c r="C89" s="174">
+        <v>4</v>
+      </c>
+      <c r="D89" s="175">
+        <v>1395</v>
+      </c>
+      <c r="E89" s="176">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="172">
+        <v>6</v>
+      </c>
+      <c r="B90" s="173" t="s">
+        <v>106</v>
+      </c>
+      <c r="C90" s="174">
+        <v>4</v>
+      </c>
+      <c r="D90" s="175">
+        <v>3195</v>
+      </c>
+      <c r="E90" s="176">
+        <v>12780</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="172">
+        <v>7</v>
+      </c>
+      <c r="B91" s="173" t="s">
+        <v>102</v>
+      </c>
+      <c r="C91" s="174">
+        <v>10</v>
+      </c>
+      <c r="D91" s="175">
+        <v>1445</v>
+      </c>
+      <c r="E91" s="176">
+        <v>14450</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="172">
+        <v>8</v>
+      </c>
+      <c r="B92" s="173" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" s="174">
+        <v>12</v>
+      </c>
+      <c r="D92" s="175">
+        <v>1095</v>
+      </c>
+      <c r="E92" s="176">
+        <v>13140</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="172">
+        <v>9</v>
+      </c>
+      <c r="B93" s="173" t="s">
+        <v>107</v>
+      </c>
+      <c r="C93" s="174">
+        <v>8</v>
+      </c>
+      <c r="D93" s="175">
         <v>3145</v>
       </c>
-      <c r="E72" s="56">
-        <f t="shared" si="2"/>
-        <v>3145</v>
-      </c>
-      <c r="F72" s="165"/>
-      <c r="G72" s="165"/>
-      <c r="H72" s="163"/>
-      <c r="I72" s="163"/>
-      <c r="J72" s="163"/>
-      <c r="K72" s="163"/>
-      <c r="L72" s="163"/>
-      <c r="M72" s="163"/>
-      <c r="N72" s="163"/>
-      <c r="O72" s="163"/>
-      <c r="P72" s="163"/>
-      <c r="Q72" s="163"/>
-      <c r="R72" s="163"/>
-      <c r="S72" s="163"/>
-      <c r="T72" s="163"/>
-      <c r="U72" s="163"/>
-      <c r="V72" s="163"/>
-      <c r="X72" s="164"/>
-      <c r="Y72" s="164"/>
-      <c r="Z72" s="10"/>
-      <c r="AA72" s="10"/>
-      <c r="AB72" s="10"/>
-      <c r="AC72" s="10"/>
-      <c r="AD72" s="10"/>
-      <c r="AE72" s="10"/>
-      <c r="AF72" s="10"/>
-      <c r="AG72" s="10"/>
-      <c r="AH72" s="10"/>
-      <c r="AI72" s="10"/>
-      <c r="AJ72" s="10"/>
-      <c r="AK72" s="10"/>
-      <c r="AL72" s="10"/>
-      <c r="AM72" s="10"/>
-      <c r="AN72" s="10"/>
-      <c r="AO72" s="10"/>
-      <c r="AP72" s="10"/>
-      <c r="AQ72" s="10"/>
-    </row>
-    <row r="73" spans="1:43" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="58">
-        <v>69</v>
-      </c>
-      <c r="B73" s="10"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="166" t="s">
-        <v>0</v>
-      </c>
-      <c r="G73" s="10">
-        <f>SUM(E74:E75)</f>
-        <v>50500</v>
-      </c>
-      <c r="H73" s="10"/>
-      <c r="I73" s="10"/>
-      <c r="J73" s="10"/>
-      <c r="K73" s="10"/>
-      <c r="L73" s="10"/>
-      <c r="M73" s="10"/>
-      <c r="N73" s="10"/>
-      <c r="O73" s="10"/>
-      <c r="P73" s="10"/>
-      <c r="Q73" s="10"/>
-      <c r="R73" s="10"/>
-      <c r="S73" s="10"/>
-      <c r="T73" s="10"/>
-      <c r="U73" s="10"/>
-      <c r="V73" s="10"/>
-      <c r="W73" s="10"/>
-      <c r="X73" s="10"/>
-      <c r="Y73" s="10"/>
-      <c r="Z73" s="10"/>
-      <c r="AA73" s="10"/>
-      <c r="AB73" s="10"/>
-      <c r="AC73" s="10"/>
-      <c r="AD73" s="10"/>
-      <c r="AE73" s="10"/>
-      <c r="AF73" s="10"/>
-      <c r="AG73" s="10"/>
-      <c r="AH73" s="10"/>
-      <c r="AI73" s="10"/>
-      <c r="AJ73" s="10"/>
-      <c r="AK73" s="10"/>
-      <c r="AL73" s="10"/>
-      <c r="AM73" s="10"/>
-      <c r="AN73" s="10"/>
-      <c r="AO73" s="10"/>
-      <c r="AP73" s="10"/>
-      <c r="AQ73" s="10"/>
-    </row>
-    <row r="74" spans="1:43" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="58">
-        <v>70</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C74" s="10">
+      <c r="E93" s="176">
+        <v>25160</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="172">
         <v>10</v>
       </c>
-      <c r="D74" s="10">
-        <v>2525</v>
-      </c>
-      <c r="E74" s="10">
-        <f>C74*D74</f>
-        <v>25250</v>
-      </c>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="10"/>
-      <c r="I74" s="10"/>
-      <c r="J74" s="10"/>
-      <c r="K74" s="10"/>
-      <c r="L74" s="10"/>
-      <c r="M74" s="10"/>
-      <c r="N74" s="10"/>
-      <c r="O74" s="10"/>
-      <c r="P74" s="10"/>
-      <c r="Q74" s="10"/>
-      <c r="R74" s="10"/>
-      <c r="S74" s="10"/>
-      <c r="T74" s="10"/>
-      <c r="U74" s="10"/>
-      <c r="V74" s="10"/>
-      <c r="W74" s="10"/>
-      <c r="X74" s="10"/>
-      <c r="Y74" s="10"/>
-      <c r="Z74" s="10"/>
-      <c r="AA74" s="10"/>
-      <c r="AB74" s="10"/>
-      <c r="AC74" s="10"/>
-      <c r="AD74" s="10"/>
-      <c r="AE74" s="10"/>
-      <c r="AF74" s="10"/>
-      <c r="AG74" s="10"/>
-      <c r="AH74" s="10"/>
-      <c r="AI74" s="10"/>
-      <c r="AJ74" s="10"/>
-      <c r="AK74" s="10"/>
-      <c r="AL74" s="10"/>
-      <c r="AM74" s="10"/>
-      <c r="AN74" s="10"/>
-      <c r="AO74" s="10"/>
-      <c r="AP74" s="10"/>
-      <c r="AQ74" s="10"/>
-    </row>
-    <row r="75" spans="1:43" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="148" t="s">
-        <v>92</v>
-      </c>
-      <c r="C75" s="168">
+      <c r="B94" s="173" t="s">
+        <v>108</v>
+      </c>
+      <c r="C94" s="174">
         <v>10</v>
       </c>
-      <c r="D75" s="169">
-        <v>2525</v>
-      </c>
-      <c r="E75" s="10">
-        <f>C75*D75</f>
-        <v>25250</v>
-      </c>
-    </row>
-    <row r="77" spans="1:43" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C77" s="1">
+      <c r="D94" s="175">
+        <v>3095</v>
+      </c>
+      <c r="E94" s="176">
+        <v>30950</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="172">
+        <v>11</v>
+      </c>
+      <c r="B95" s="173" t="s">
+        <v>109</v>
+      </c>
+      <c r="C95" s="174">
+        <v>6</v>
+      </c>
+      <c r="D95" s="175">
+        <v>3995</v>
+      </c>
+      <c r="E95" s="176">
+        <v>23970</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="172">
+        <v>12</v>
+      </c>
+      <c r="B96" s="173" t="s">
+        <v>110</v>
+      </c>
+      <c r="C96" s="174">
         <v>2</v>
       </c>
-      <c r="D77" s="1">
-        <v>2580</v>
-      </c>
-      <c r="E77" s="1">
-        <v>5160</v>
-      </c>
-    </row>
-    <row r="78" spans="1:43" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="171" t="s">
-        <v>94</v>
-      </c>
-      <c r="C78" s="1">
+      <c r="D96" s="175">
+        <v>3995</v>
+      </c>
+      <c r="E96" s="176">
+        <v>7990</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="172">
+        <v>13</v>
+      </c>
+      <c r="B97" s="173" t="s">
+        <v>111</v>
+      </c>
+      <c r="C97" s="174">
         <v>2</v>
       </c>
-      <c r="D78" s="1">
-        <v>5605</v>
-      </c>
-      <c r="E78" s="1">
-        <v>11210</v>
-      </c>
-    </row>
-    <row r="79" spans="1:43" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="171" t="s">
-        <v>95</v>
-      </c>
-      <c r="C79" s="171">
+      <c r="D97" s="175">
+        <v>2995</v>
+      </c>
+      <c r="E97" s="176">
+        <v>5990</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="172">
+        <v>14</v>
+      </c>
+      <c r="B98" s="173" t="s">
+        <v>112</v>
+      </c>
+      <c r="C98" s="174">
+        <v>3</v>
+      </c>
+      <c r="D98" s="175">
+        <v>4195</v>
+      </c>
+      <c r="E98" s="176">
+        <v>12585</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="172">
+        <v>15</v>
+      </c>
+      <c r="B99" s="173" t="s">
+        <v>113</v>
+      </c>
+      <c r="C99" s="174">
+        <v>3</v>
+      </c>
+      <c r="D99" s="175">
+        <v>3195</v>
+      </c>
+      <c r="E99" s="176">
+        <v>9585</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="172">
+        <v>16</v>
+      </c>
+      <c r="B100" s="173" t="s">
+        <v>114</v>
+      </c>
+      <c r="C100" s="174">
+        <v>2</v>
+      </c>
+      <c r="D100" s="175">
+        <v>2995</v>
+      </c>
+      <c r="E100" s="176">
+        <v>5990</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="172">
+        <v>17</v>
+      </c>
+      <c r="B101" s="173" t="s">
+        <v>115</v>
+      </c>
+      <c r="C101" s="174">
+        <v>2</v>
+      </c>
+      <c r="D101" s="175">
+        <v>3545</v>
+      </c>
+      <c r="E101" s="176">
+        <v>7090</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="172">
+        <v>18</v>
+      </c>
+      <c r="B102" s="173" t="s">
+        <v>19</v>
+      </c>
+      <c r="C102" s="174">
+        <v>1</v>
+      </c>
+      <c r="D102" s="175">
+        <v>4845</v>
+      </c>
+      <c r="E102" s="176">
+        <v>4845</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="177" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" s="148" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="179">
+        <v>1</v>
+      </c>
+      <c r="B105" s="180" t="s">
+        <v>118</v>
+      </c>
+      <c r="C105" s="181">
         <v>4</v>
       </c>
-      <c r="D79" s="171">
-        <v>3570</v>
-      </c>
-      <c r="E79" s="1">
-        <v>14280</v>
-      </c>
-    </row>
-    <row r="80" spans="1:43" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="171" t="s">
-        <v>96</v>
-      </c>
-      <c r="C80" s="171">
+      <c r="D105" s="182">
+        <v>1545</v>
+      </c>
+      <c r="E105" s="183">
+        <v>6180</v>
+      </c>
+      <c r="G105" s="178">
+        <f>SUM(E105:E112)</f>
+        <v>56115</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" s="148" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="179">
+        <v>2</v>
+      </c>
+      <c r="B106" s="180" t="s">
+        <v>119</v>
+      </c>
+      <c r="C106" s="181">
+        <v>2</v>
+      </c>
+      <c r="D106" s="182">
+        <v>1545</v>
+      </c>
+      <c r="E106" s="183">
+        <v>3090</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" s="148" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="179">
+        <v>3</v>
+      </c>
+      <c r="B107" s="180" t="s">
+        <v>120</v>
+      </c>
+      <c r="C107" s="181">
+        <v>2</v>
+      </c>
+      <c r="D107" s="182">
+        <v>3045</v>
+      </c>
+      <c r="E107" s="183">
+        <v>6090</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" s="148" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="179">
         <v>4</v>
       </c>
-      <c r="D80" s="171">
-        <v>1597</v>
-      </c>
-      <c r="E80" s="171">
-        <v>6388</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="171" t="s">
-        <v>97</v>
-      </c>
-      <c r="C81" s="171">
+      <c r="B108" s="180" t="s">
+        <v>121</v>
+      </c>
+      <c r="C108" s="181">
+        <v>1</v>
+      </c>
+      <c r="D108" s="182">
+        <v>4995</v>
+      </c>
+      <c r="E108" s="183">
+        <v>4995</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" s="148" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="179">
+        <v>5</v>
+      </c>
+      <c r="B109" s="180" t="s">
+        <v>122</v>
+      </c>
+      <c r="C109" s="181">
         <v>2</v>
       </c>
-      <c r="D81" s="171">
-        <v>3234</v>
-      </c>
-      <c r="E81" s="171">
-        <v>6468</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="171" t="s">
-        <v>98</v>
-      </c>
-      <c r="C82" s="171">
+      <c r="D109" s="182">
+        <v>4995</v>
+      </c>
+      <c r="E109" s="183">
+        <v>9990</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" s="148" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="179">
+        <v>6</v>
+      </c>
+      <c r="B110" s="180" t="s">
+        <v>123</v>
+      </c>
+      <c r="C110" s="181">
+        <v>1</v>
+      </c>
+      <c r="D110" s="182">
+        <v>3395</v>
+      </c>
+      <c r="E110" s="183">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" s="148" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="179">
+        <v>7</v>
+      </c>
+      <c r="B111" s="180" t="s">
+        <v>124</v>
+      </c>
+      <c r="C111" s="181">
+        <v>3</v>
+      </c>
+      <c r="D111" s="182">
+        <v>5095</v>
+      </c>
+      <c r="E111" s="183">
+        <v>15285</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" s="148" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="179">
+        <v>8</v>
+      </c>
+      <c r="B112" s="180" t="s">
+        <v>125</v>
+      </c>
+      <c r="C112" s="181">
+        <v>2</v>
+      </c>
+      <c r="D112" s="182">
+        <v>3545</v>
+      </c>
+      <c r="E112" s="183">
+        <v>7090</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="177" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="184">
+        <v>1</v>
+      </c>
+      <c r="B115" s="185" t="s">
+        <v>127</v>
+      </c>
+      <c r="C115" s="186">
+        <v>1</v>
+      </c>
+      <c r="D115" s="187">
+        <v>3845</v>
+      </c>
+      <c r="E115" s="188">
+        <v>3845</v>
+      </c>
+      <c r="G115" s="178">
+        <f>SUM(E115:E122)</f>
+        <v>56225</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="184">
+        <v>2</v>
+      </c>
+      <c r="B116" s="185" t="s">
+        <v>128</v>
+      </c>
+      <c r="C116" s="186">
+        <v>1</v>
+      </c>
+      <c r="D116" s="187">
+        <v>4895</v>
+      </c>
+      <c r="E116" s="188">
+        <v>4895</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="184">
+        <v>3</v>
+      </c>
+      <c r="B117" s="185" t="s">
+        <v>129</v>
+      </c>
+      <c r="C117" s="186">
+        <v>1</v>
+      </c>
+      <c r="D117" s="187">
+        <v>4895</v>
+      </c>
+      <c r="E117" s="188">
+        <v>4895</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="184">
         <v>4</v>
       </c>
-      <c r="D82" s="171">
-        <v>2525</v>
-      </c>
-      <c r="E82" s="171">
-        <v>10100</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="171" t="s">
-        <v>99</v>
-      </c>
-      <c r="C83" s="171">
+      <c r="B118" s="185" t="s">
+        <v>130</v>
+      </c>
+      <c r="C118" s="186">
         <v>1</v>
       </c>
-      <c r="D83" s="171">
-        <v>1920</v>
-      </c>
-      <c r="E83" s="171">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="171" t="s">
-        <v>100</v>
-      </c>
-      <c r="C84" s="171">
+      <c r="D118" s="187">
+        <v>5595</v>
+      </c>
+      <c r="E118" s="188">
+        <v>5595</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="184">
+        <v>5</v>
+      </c>
+      <c r="B119" s="185" t="s">
+        <v>124</v>
+      </c>
+      <c r="C119" s="186">
         <v>1</v>
       </c>
-      <c r="D84" s="1">
-        <v>2590</v>
-      </c>
-      <c r="E84" s="171">
-        <v>2590</v>
+      <c r="D119" s="187">
+        <v>5095</v>
+      </c>
+      <c r="E119" s="188">
+        <v>5095</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="184">
+        <v>6</v>
+      </c>
+      <c r="B120" s="185" t="s">
+        <v>88</v>
+      </c>
+      <c r="C120" s="186">
+        <v>6</v>
+      </c>
+      <c r="D120" s="187">
+        <v>1350</v>
+      </c>
+      <c r="E120" s="188">
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="184">
+        <v>7</v>
+      </c>
+      <c r="B121" s="185" t="s">
+        <v>131</v>
+      </c>
+      <c r="C121" s="186">
+        <v>3</v>
+      </c>
+      <c r="D121" s="187">
+        <v>2100</v>
+      </c>
+      <c r="E121" s="188">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="184">
+        <v>8</v>
+      </c>
+      <c r="B122" s="185" t="s">
+        <v>24</v>
+      </c>
+      <c r="C122" s="186">
+        <v>5</v>
+      </c>
+      <c r="D122" s="187">
+        <v>3500</v>
+      </c>
+      <c r="E122" s="188">
+        <v>17500</v>
       </c>
     </row>
   </sheetData>
@@ -7080,59 +7725,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="170" t="s">
+      <c r="A1" s="171" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="170"/>
-      <c r="F1" s="170"/>
-      <c r="G1" s="170"/>
-      <c r="H1" s="170"/>
-      <c r="I1" s="170"/>
-      <c r="J1" s="170"/>
-      <c r="K1" s="170"/>
-      <c r="L1" s="170"/>
-      <c r="M1" s="170"/>
-      <c r="N1" s="170"/>
-      <c r="O1" s="170"/>
-      <c r="P1" s="170"/>
-      <c r="Q1" s="170"/>
-      <c r="R1" s="170"/>
-      <c r="S1" s="170"/>
-      <c r="T1" s="170"/>
-      <c r="U1" s="170"/>
-      <c r="V1" s="170"/>
-      <c r="W1" s="170"/>
-      <c r="X1" s="170"/>
-      <c r="Y1" s="170"/>
-      <c r="Z1" s="170"/>
-      <c r="AA1" s="170"/>
-      <c r="AB1" s="170"/>
-      <c r="AC1" s="170"/>
-      <c r="AD1" s="170"/>
-      <c r="AE1" s="170"/>
-      <c r="AF1" s="170"/>
-      <c r="AG1" s="170"/>
-      <c r="AH1" s="170"/>
-      <c r="AI1" s="170"/>
-      <c r="AJ1" s="170"/>
-      <c r="AK1" s="170"/>
-      <c r="AL1" s="170"/>
-      <c r="AM1" s="170"/>
-      <c r="AN1" s="170"/>
-      <c r="AO1" s="170"/>
-      <c r="AP1" s="170"/>
-      <c r="AQ1" s="170"/>
-      <c r="AR1" s="170"/>
-      <c r="AS1" s="170"/>
-      <c r="AT1" s="170"/>
-      <c r="AU1" s="170"/>
-      <c r="AV1" s="170"/>
-      <c r="AW1" s="170"/>
-      <c r="AX1" s="170"/>
-      <c r="AY1" s="170"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="171"/>
+      <c r="K1" s="171"/>
+      <c r="L1" s="171"/>
+      <c r="M1" s="171"/>
+      <c r="N1" s="171"/>
+      <c r="O1" s="171"/>
+      <c r="P1" s="171"/>
+      <c r="Q1" s="171"/>
+      <c r="R1" s="171"/>
+      <c r="S1" s="171"/>
+      <c r="T1" s="171"/>
+      <c r="U1" s="171"/>
+      <c r="V1" s="171"/>
+      <c r="W1" s="171"/>
+      <c r="X1" s="171"/>
+      <c r="Y1" s="171"/>
+      <c r="Z1" s="171"/>
+      <c r="AA1" s="171"/>
+      <c r="AB1" s="171"/>
+      <c r="AC1" s="171"/>
+      <c r="AD1" s="171"/>
+      <c r="AE1" s="171"/>
+      <c r="AF1" s="171"/>
+      <c r="AG1" s="171"/>
+      <c r="AH1" s="171"/>
+      <c r="AI1" s="171"/>
+      <c r="AJ1" s="171"/>
+      <c r="AK1" s="171"/>
+      <c r="AL1" s="171"/>
+      <c r="AM1" s="171"/>
+      <c r="AN1" s="171"/>
+      <c r="AO1" s="171"/>
+      <c r="AP1" s="171"/>
+      <c r="AQ1" s="171"/>
+      <c r="AR1" s="171"/>
+      <c r="AS1" s="171"/>
+      <c r="AT1" s="171"/>
+      <c r="AU1" s="171"/>
+      <c r="AV1" s="171"/>
+      <c r="AW1" s="171"/>
+      <c r="AX1" s="171"/>
+      <c r="AY1" s="171"/>
     </row>
     <row r="2" spans="1:51" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="60"/>
@@ -7340,16 +7985,16 @@
       <c r="Q5" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="R5" s="86">
+      <c r="R5" s="86" t="e">
         <f>SUM(L6:L78)</f>
-        <v>910296</v>
+        <v>#REF!</v>
       </c>
       <c r="S5" s="87" t="s">
         <v>72</v>
       </c>
       <c r="T5" s="88">
         <f>Приход!J1</f>
-        <v>722198</v>
+        <v>1025788.2</v>
       </c>
       <c r="U5" s="89"/>
       <c r="V5" s="89"/>
@@ -7436,9 +8081,9 @@
       <c r="S6" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="T6" s="99">
+      <c r="T6" s="99" t="e">
         <f>N$5+N23+N42+N44</f>
-        <v>728829.6</v>
+        <v>#REF!</v>
       </c>
       <c r="U6" s="100"/>
       <c r="V6" s="100"/>
@@ -7519,16 +8164,16 @@
       <c r="Q7" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="21">
+      <c r="R7" s="21" t="e">
         <f>R6-R5</f>
-        <v>-210296</v>
+        <v>#REF!</v>
       </c>
       <c r="S7" s="103" t="s">
         <v>74</v>
       </c>
-      <c r="T7" s="104">
+      <c r="T7" s="104" t="e">
         <f>P$5+P23+P42+P44</f>
-        <v>789565.4</v>
+        <v>#REF!</v>
       </c>
       <c r="U7" s="68"/>
       <c r="V7" s="68"/>
@@ -7611,9 +8256,9 @@
       <c r="S8" s="105" t="s">
         <v>75</v>
       </c>
-      <c r="T8" s="104">
+      <c r="T8" s="104" t="e">
         <f>T7-T$6</f>
-        <v>60735.800000000047</v>
+        <v>#REF!</v>
       </c>
       <c r="U8" s="68"/>
       <c r="V8" s="68"/>
@@ -7776,9 +8421,9 @@
       <c r="S10" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="T10" s="104">
+      <c r="T10" s="104" t="e">
         <f>SUM(F6:F66)</f>
-        <v>704535.28000000014</v>
+        <v>#REF!</v>
       </c>
       <c r="U10" s="68"/>
       <c r="V10" s="68"/>
@@ -7861,9 +8506,9 @@
       <c r="S11" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="T11" s="104">
+      <c r="T11" s="104" t="e">
         <f>T7-T10</f>
-        <v>85030.119999999879</v>
+        <v>#REF!</v>
       </c>
       <c r="U11" s="68"/>
       <c r="V11" s="68"/>
@@ -10482,23 +11127,23 @@
       <c r="K44" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="L44" s="51">
+      <c r="L44" s="51" t="e">
         <f>SUM(J45:J66)</f>
-        <v>572970</v>
+        <v>#REF!</v>
       </c>
       <c r="M44" s="135" t="s">
         <v>69</v>
       </c>
-      <c r="N44" s="136">
+      <c r="N44" s="136" t="e">
         <f>SUM(I45:I66)</f>
-        <v>343782</v>
+        <v>#REF!</v>
       </c>
       <c r="O44" s="115" t="s">
         <v>70</v>
       </c>
-      <c r="P44" s="116">
+      <c r="P44" s="116" t="e">
         <f>SUM(H45:H66)</f>
-        <v>372430.5</v>
+        <v>#REF!</v>
       </c>
       <c r="Q44" s="72"/>
       <c r="R44" s="68"/>
@@ -12066,33 +12711,33 @@
       <c r="C64" s="54">
         <v>2</v>
       </c>
-      <c r="D64" s="14">
-        <f>Приход!$D60*2</f>
-        <v>10320</v>
-      </c>
-      <c r="E64" s="13">
-        <f>Приход!D60*$T$16</f>
-        <v>5985.5999999999995</v>
-      </c>
-      <c r="F64" s="138">
+      <c r="D64" s="14" t="e">
+        <f>Приход!#REF!*2</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E64" s="13" t="e">
+        <f>Приход!#REF!*$T$16</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F64" s="138" t="e">
         <f t="shared" si="6"/>
-        <v>11971.199999999999</v>
-      </c>
-      <c r="G64" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="G64" s="14" t="e">
         <f t="shared" si="7"/>
-        <v>6708</v>
-      </c>
-      <c r="H64" s="13">
+        <v>#REF!</v>
+      </c>
+      <c r="H64" s="13" t="e">
         <f t="shared" si="8"/>
-        <v>13416</v>
-      </c>
-      <c r="I64" s="13">
-        <f>D64*0.6*Приход!C60</f>
-        <v>12384</v>
-      </c>
-      <c r="J64" s="139">
+        <v>#REF!</v>
+      </c>
+      <c r="I64" s="13" t="e">
+        <f>D64*0.6*Приход!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J64" s="139" t="e">
         <f t="shared" si="9"/>
-        <v>20640</v>
+        <v>#REF!</v>
       </c>
       <c r="K64" s="72"/>
       <c r="L64" s="68"/>
@@ -12146,33 +12791,33 @@
       <c r="C65" s="54">
         <v>2</v>
       </c>
-      <c r="D65" s="14">
-        <f>Приход!$D61*2</f>
-        <v>22420</v>
-      </c>
-      <c r="E65" s="13">
-        <f>Приход!D61*$T$16</f>
-        <v>13003.599999999999</v>
-      </c>
-      <c r="F65" s="138">
+      <c r="D65" s="14" t="e">
+        <f>Приход!#REF!*2</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E65" s="13" t="e">
+        <f>Приход!#REF!*$T$16</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F65" s="138" t="e">
         <f t="shared" si="6"/>
-        <v>26007.199999999997</v>
-      </c>
-      <c r="G65" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="G65" s="14" t="e">
         <f t="shared" si="7"/>
-        <v>14573</v>
-      </c>
-      <c r="H65" s="13">
+        <v>#REF!</v>
+      </c>
+      <c r="H65" s="13" t="e">
         <f t="shared" si="8"/>
-        <v>29146</v>
-      </c>
-      <c r="I65" s="13">
-        <f>D65*0.6*Приход!C61</f>
-        <v>26904</v>
-      </c>
-      <c r="J65" s="139">
+        <v>#REF!</v>
+      </c>
+      <c r="I65" s="13" t="e">
+        <f>D65*0.6*Приход!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J65" s="139" t="e">
         <f t="shared" si="9"/>
-        <v>44840</v>
+        <v>#REF!</v>
       </c>
       <c r="K65" s="72"/>
       <c r="L65" s="68"/>
@@ -12226,33 +12871,33 @@
       <c r="C66" s="54">
         <v>4</v>
       </c>
-      <c r="D66" s="14">
-        <f>Приход!$D62*2</f>
-        <v>14280</v>
-      </c>
-      <c r="E66" s="13">
-        <f>Приход!D62*$T$16</f>
-        <v>8282.4</v>
-      </c>
-      <c r="F66" s="138">
+      <c r="D66" s="14" t="e">
+        <f>Приход!#REF!*2</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E66" s="13" t="e">
+        <f>Приход!#REF!*$T$16</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F66" s="138" t="e">
         <f t="shared" si="6"/>
-        <v>33129.599999999999</v>
-      </c>
-      <c r="G66" s="14">
+        <v>#REF!</v>
+      </c>
+      <c r="G66" s="14" t="e">
         <f t="shared" si="7"/>
-        <v>9282</v>
-      </c>
-      <c r="H66" s="13">
+        <v>#REF!</v>
+      </c>
+      <c r="H66" s="13" t="e">
         <f t="shared" si="8"/>
-        <v>37128</v>
-      </c>
-      <c r="I66" s="13">
-        <f>D66*0.6*Приход!C62</f>
-        <v>34272</v>
-      </c>
-      <c r="J66" s="139">
+        <v>#REF!</v>
+      </c>
+      <c r="I66" s="13" t="e">
+        <f>D66*0.6*Приход!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J66" s="139" t="e">
         <f t="shared" si="9"/>
-        <v>57120</v>
+        <v>#REF!</v>
       </c>
       <c r="K66" s="72"/>
       <c r="L66" s="68"/>
@@ -12970,10 +13615,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ12"/>
+  <dimension ref="A1:AQ24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12988,6 +13633,15 @@
       <c r="A1" s="148" t="s">
         <v>78</v>
       </c>
+      <c r="F1" s="177" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" s="177" t="s">
+        <v>138</v>
+      </c>
+      <c r="J1" s="189">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="2" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="149">
@@ -13006,11 +13660,18 @@
         <f>C2*D2</f>
         <v>4245</v>
       </c>
-      <c r="F2" s="153"/>
+      <c r="F2" s="153">
+        <f>E2*$J$1</f>
+        <v>5094</v>
+      </c>
       <c r="G2" s="154"/>
-      <c r="H2" s="155">
-        <f>SUM(E2:E12)/5*6</f>
-        <v>37386</v>
+      <c r="H2" s="148">
+        <f>SUM(E:E)</f>
+        <v>54600</v>
+      </c>
+      <c r="J2" s="155">
+        <f>SUM(F:F)</f>
+        <v>64481</v>
       </c>
     </row>
     <row r="3" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13030,7 +13691,10 @@
         <f>C3*D3</f>
         <v>1295</v>
       </c>
-      <c r="F3" s="153"/>
+      <c r="F3" s="153">
+        <f>E3*$J$1</f>
+        <v>1554</v>
+      </c>
       <c r="G3" s="154"/>
       <c r="H3" s="154"/>
     </row>
@@ -13051,7 +13715,10 @@
         <f>C4*D4</f>
         <v>6965</v>
       </c>
-      <c r="F4" s="153"/>
+      <c r="F4" s="153">
+        <f>E4*$J$1</f>
+        <v>8358</v>
+      </c>
       <c r="G4" s="154"/>
       <c r="H4" s="154"/>
     </row>
@@ -13063,7 +13730,10 @@
       <c r="C5" s="160"/>
       <c r="D5" s="160"/>
       <c r="E5" s="160"/>
-      <c r="F5" s="154"/>
+      <c r="F5" s="153">
+        <f>E5*$J$1</f>
+        <v>0</v>
+      </c>
       <c r="G5" s="154"/>
       <c r="H5" s="154"/>
     </row>
@@ -13084,7 +13754,10 @@
         <f t="shared" ref="E6:E8" si="0">C6*D6</f>
         <v>2525</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="153">
+        <f>E6*$J$1</f>
+        <v>3030</v>
+      </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
@@ -13131,7 +13804,10 @@
       <c r="C7" s="54"/>
       <c r="D7" s="55"/>
       <c r="E7" s="56"/>
-      <c r="F7" s="9"/>
+      <c r="F7" s="153">
+        <f>E7*$J$1</f>
+        <v>0</v>
+      </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="162"/>
@@ -13187,7 +13863,10 @@
         <f t="shared" si="0"/>
         <v>3500</v>
       </c>
-      <c r="F8" s="154"/>
+      <c r="F8" s="153">
+        <f>E8*$J$1</f>
+        <v>4200</v>
+      </c>
       <c r="G8" s="154"/>
       <c r="H8" s="154"/>
     </row>
@@ -13199,7 +13878,10 @@
       <c r="C9" s="154"/>
       <c r="D9" s="154"/>
       <c r="E9" s="154"/>
-      <c r="F9" s="154"/>
+      <c r="F9" s="153">
+        <f>E9*$J$1</f>
+        <v>0</v>
+      </c>
       <c r="G9" s="154"/>
       <c r="H9" s="154"/>
     </row>
@@ -13220,7 +13902,10 @@
         <f t="shared" ref="E10:E11" si="1">C10*D10</f>
         <v>7575</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="153">
+        <f>E10*$J$1</f>
+        <v>9090</v>
+      </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
@@ -13276,7 +13961,10 @@
         <f t="shared" si="1"/>
         <v>5050</v>
       </c>
-      <c r="F11" s="9"/>
+      <c r="F11" s="153">
+        <f>E11*$J$1</f>
+        <v>6060</v>
+      </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
@@ -13285,7 +13973,10 @@
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
+      <c r="O11" s="10">
+        <f>SUM(F6:F24)</f>
+        <v>49475</v>
+      </c>
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
       <c r="R11" s="10"/>
@@ -13321,9 +14012,180 @@
       <c r="C12" s="154"/>
       <c r="D12" s="154"/>
       <c r="E12" s="154"/>
-      <c r="F12" s="154"/>
+      <c r="F12" s="153">
+        <f>E12*$J$1</f>
+        <v>0</v>
+      </c>
       <c r="G12" s="154"/>
       <c r="H12" s="154"/>
+    </row>
+    <row r="13" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="177" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13" s="153">
+        <f>E13*$J$1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="58">
+        <v>67</v>
+      </c>
+      <c r="B14" s="185" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="186">
+        <v>1</v>
+      </c>
+      <c r="D14" s="187">
+        <v>2745</v>
+      </c>
+      <c r="E14" s="56">
+        <f t="shared" ref="E14:E20" si="2">C14*D14</f>
+        <v>2745</v>
+      </c>
+      <c r="F14" s="153">
+        <f>E14*$J$1</f>
+        <v>3294</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="177" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" s="56">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="153">
+        <f t="shared" ref="F15:F20" si="3">E15*$J$1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="170" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="170">
+        <v>1</v>
+      </c>
+      <c r="D16" s="170">
+        <v>3570</v>
+      </c>
+      <c r="E16" s="56">
+        <f t="shared" si="2"/>
+        <v>3570</v>
+      </c>
+      <c r="F16" s="153">
+        <f t="shared" si="3"/>
+        <v>4284</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="54">
+        <v>2</v>
+      </c>
+      <c r="D17" s="55">
+        <v>4395</v>
+      </c>
+      <c r="E17" s="56">
+        <f t="shared" si="2"/>
+        <v>8790</v>
+      </c>
+      <c r="F17" s="153">
+        <f t="shared" si="3"/>
+        <v>10548</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="177" t="s">
+        <v>134</v>
+      </c>
+      <c r="E18" s="56">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="153">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="56">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="153">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="185" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="186">
+        <v>1</v>
+      </c>
+      <c r="D20" s="187">
+        <v>3145</v>
+      </c>
+      <c r="E20" s="56">
+        <f t="shared" si="2"/>
+        <v>3145</v>
+      </c>
+      <c r="F20" s="153">
+        <f t="shared" si="3"/>
+        <v>3774</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="177" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="30">
+        <v>1</v>
+      </c>
+      <c r="D22" s="31">
+        <v>3845</v>
+      </c>
+      <c r="E22" s="31">
+        <v>3845</v>
+      </c>
+      <c r="F22" s="31">
+        <v>3845</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="177" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="177" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24" s="148">
+        <v>1</v>
+      </c>
+      <c r="D24" s="148">
+        <v>1350</v>
+      </c>
+      <c r="E24" s="148">
+        <v>1350</v>
+      </c>
+      <c r="F24" s="148">
+        <v>1350</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
